--- a/news_data/2015_04.xlsx
+++ b/news_data/2015_04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,66 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>성주참외 중국인 관광객 입맛 사로잡기 위해 제주도 상륙</t>
+  </si>
+  <si>
+    <t>[조성신의 富동산 현장] 관광에 교육·산업 두른 제주도 외지인 거래량 `껑충...</t>
+  </si>
+  <si>
+    <t>[스마트 컨슈머]천혜절경+청정환경+관광급증, 제주도 호텔 전성시대</t>
+  </si>
+  <si>
+    <t>제주도 찾은 최경환 부총리 "관광산업 종합대책 마련" 강조</t>
+  </si>
+  <si>
+    <t>제주도의원 "상가리관광지 환경평가심의 무효화해야"</t>
+  </si>
+  <si>
+    <t>최경환 "제주도, 중국인 많은섬…상반기 내 관광활성화 대책 발표"</t>
+  </si>
+  <si>
+    <t>제주도 관광객 지속적 증가로, ‘골든튤립 제주노형호텔’ 인기</t>
+  </si>
+  <si>
+    <t>제주도, 침체된 일본 관광시장 활성화 위해 본격 나선다</t>
+  </si>
+  <si>
+    <t>5~6월 제주도 떠나면 인기 관광지 입장 무료</t>
+  </si>
+  <si>
+    <t>제주도, 논란 상가리관광지 조성사업 조건부 '통과'</t>
+  </si>
+  <si>
+    <t>제주도, 일본 관광시장 활성화 분주</t>
+  </si>
+  <si>
+    <t>中 웨딩관광객 제주도로...제주관광공사, 아이웨딩과 유치 지속 노력</t>
+  </si>
+  <si>
+    <t>&lt;인사&gt; 제주도관광협회</t>
+  </si>
+  <si>
+    <t>제주도 관광주간 온·오프라인 홍보 강화</t>
+  </si>
+  <si>
+    <t>참좋은여행, 제주도 관광지 입장권 무료 증정 이벤트 실시</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 펜션 ‘풀향기휴양펜션’ 봄맞이 관광객에 힐링 선물</t>
+  </si>
+  <si>
+    <t>봄맞이 힐링 관광객이 추천하는 제주도펜션 '이로제주(IRO JeJu)'</t>
+  </si>
+  <si>
+    <t>제주도 방문 관광객 필수코스 신라면세점 바로 앞,‘제주 센트럴시티 호텔’ ...</t>
+  </si>
+  <si>
+    <t>'제주 센트럴시티 호텔' 특별 공급, 제주도 방문 중국관광객 몰리는 신세계백...</t>
+  </si>
+  <si>
+    <t>'관광 1번지' 제주도… 제대로 알고 투자하자!</t>
+  </si>
+  <si>
     <t>[인사] 제주도관광협회 인사예고</t>
   </si>
   <si>
@@ -46,28 +106,67 @@
     <t>참좋은여행, 제주도 관광지 입장권 증정 이벤트 진행</t>
   </si>
   <si>
-    <t>[인사] 제주도관광협회 인사예고 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 09:44 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주, 시간당 20mm 내외 강한 비…기온 큰 폭으로 ‘뚝↓’ [10월 4일] 제주도지사·도의장·도교육감·시장 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 [인사] 제주도관광협회 인사예고 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 [인사] 제주도관광협회 인사예고 기자명 문준영 기자					(moonsoyo@jejusori.net) 입력 2015.04.02 13:52 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주특별자치도관광협회(회장 김영진)는 6일자로 13명에 대한 전보 인사를 단행했다. 이번 인사는 지난 31일 이사회에서 기존 1국(사무국) 체제였던 제주도관광협회를 2국(회원지원국, 마케팅국) 체제로 개편을 결정한 데 따른 것이다.▲ 전보발령 명단(13명) 번호 성 명 발 령 사 항 현 직 1 양성우 수도권홍보사무소 소장 사업운영실 실장 2 김창효 호남권홍보사무소 소장 회원지원실장(직) 3 홍선영 회원지원실장(직) 정책기획실장(직) 4 양승필 해외마케팅실장(직) 마케팅실장(직) 5 김의남 국내마케팅실장(직) 국내마케팅팀장 6 오문향 정책기획실장(직) 정책팀장(겸) 정책팀장 7 김보형 사업운영실장(직) 시티투어팀장(겸) 호남권홍보사무소장 8 문명호 회원관리팀장 수도권홍보사무소장(직) 9 김종훈 해외마케팅팀장 마이스T/F팀장 10 김종범 마이스T/F팀장(직) 사업운영대리(겸) 회원지원팀 대리 11 강현부 회원지원팀 주임 회원관리팀 주임 12 김석영 정책팀 담당 종합관광안내소 담당 13 한송이 회원지원팀 담당 해외마케팅팀 담당 문준영 기자 moonsoyo@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 4 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 5 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래처럼 일 못하는 고문관 새끼들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 전문가인척 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 8 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 9 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 10 현병찬교장선생님 축하드립니다 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 의료관광사업 전면 재검토 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 의료관광사업 전면 재검토 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 의료관광사업 전면 재검토 기자명 김경필 기자 입력 2015.04.02 17:52 수정 2015.04.02 21:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 계획수립전 전문가 자문국비사업 중단 영향으로환자 유치 차질 '불가피' 속보=민선6기 원희룡 제주도정의 역량 부족으로 4년 연속 선정됐던 보건복지부 지역 해외환자 유치 선도의료기술 육성사업 공모에서 탈락했다는 지적(본보 4월1·2일자 1면)이 제기되자 제주도가 의료관광사업 전면 재검토에 착수했다.도는 2일 지역 해외환자 유치 선도의료기술 육성사업 공모 탈락에 따른 보도자료를 내고 의료관광사업을 전면 재검토하겠다는 입장을 밝혔다.특히 도가 도내 15개 의료기관과 사전 협의과정도 없이 일방적으로 컨소시엄을 구성하고 사업계획서를 부실 작성했다는 본보 지적과 관련해서도 개선방안을 제시했다.도는 앞으로 국비 지원사업인 지역 해외환자 유치 선도의료기술 육성사업 공모에 앞서 의료관광지원협의회 등의 자문을 구한 뒤 전반적인 사업계획을 검토, 응모여부를 결정키로 했다.또 의료관광 클러스터 구축 등 새로운 성장기반도 함께 마련해나가기로 했다.하지만 복지부 공모사업 탈락으로 지난 2011년부터 추진된 해외환자 유치 선도의료기술 육성사업이 사실상 중단, 적잖은 타격이 예상되고 있다.지난 4년간 제주도 및 해외환자 유치업체 등과 컨소시엄을 구성해 선도의료기술 육성사업을 추진해온 제주한라병원은 2012년 1107명, 2013년 1617명, 2014년 2083명의 해외환자를 유치한 것으로 파악됐다.제주한라병원은 올해도 중국과 몽골 등 주변국을 중심으로 해외환자 유치에 나설 계획이었으나 제주도가 사업계획을 변경한데다, 복지부 공모까지 탈락하면서 계획에 차질을 빚게 됐다.제주도가 의료관광사업 전면 재검토에 나선다는 입장이지만 해외환자 유치 차질로 의료관광 위축이 불가피할 것으로 관측되고 있다. 김경필 기자 kkp2032@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>[인사] 제주도관광협회 실장급 등 전보인사 단행 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [인사] 제주도관광협회 실장급 등 전보인사 단행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 [인사] 제주도관광협회 실장급 등 전보인사 단행 오미란 headlinejeju@headlinejeju.co.kr 승인 2015.04.02 14:02 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회는 4월 6일자로 직원 13명에 대한 인사를 단행했다. 아울러 제주관광협회는 제주도내 영세한 관광사업체들의 국내.외 마케팅 업무지원을 강화하기 위해 기존 1국 체제였던 사무본부 직제를 마케팅국을 신설하는 2국체제로 전환했다. 다음은 인사발령 사항. △수도권홍보사무소 소장 양성우 △호남권홍보사무소 소장 김창효 △회원지원실장 직무대리 홍선영 △해외마케팅실장 직무대리 양승필 △국내마케팅실장 직무대리 김의남 △정책기획실장 직무대리 오문향 △사업운영실장 직무대리 김보형 △회원관리팀장 문명호 △해외마케팅팀장 김종훈 △마이스T/F팀장 직무대리 김종범 △회원지원팀 주임 강현부 △정책팀 담당 김석영 △회원지원팀 담당 한송이 .&lt;헤드라인제주&gt; &lt;오미란 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>[인사] 제주도관광협회 &lt; 인사 &lt; 사람들 &lt; 기사본문 - 중부일보 - 경기·인천의 든든한 친구 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 경기·인천 뉴스의 중심 로그인 회원가입 2022-10-04 09:44 (화) 지면서비스 전체메뉴 버튼 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 지면보기 모바일보기 뉴스종합 정치 경제 사회 문화 스포츠 국제 지역 경기 사람들 인천 오피니언 라이프 기획취재 포토 검색하기 기사검색 검색 Trend news 1 40만 인파 몰린 소래포구축제…화려한 피날레 2 [오늘 날씨] 전국 흐리고 비…중부지방 강수량 최대 80㎜ 예상 3 김동연 핵심공약 '버스요금 200원 인하' 사실상 좌초 4 안양시 곳곳 들개 출몰...주민들 "아이들 다칠까 불안" 5 [송도굿마켓] 4만명 시민들 '착한나눔' 일상 되찾았다 6 '보이스피싱 신고 거부' 의정부서도 있었다 7 수원 삼일상고 → 내년 '삼일고'로 교명 변경…"학생 맞춤 특성화교육 강화 앞장" 8 인천지역 아파트값 10년 만에 최대 하락…투기과열지구 해제 효과 미미 9 [아하 그렇군요] 눅눅한 김 바삭하게 만들기 10 치맥에 즐겁고 공연에 흥나고… '3만 운집' 수원통닭거리축제 ISSUE PICK 지역개발 우리동네 집값·땅값은 TV중부 뉴스를 본다 교육이 미래다 교육의 현장속으로 팩트인사이드 오직 사실! 다문화뉴스 우리 곁에 사람들 사람들 인사 알림 부고 새얼굴 더보기 본문영역 서울 17℃  구름많음 미세먼지 경기 19℃  구름많음 미세먼지 인천 19℃  구름많음 미세먼지 이전 기사보기 다음 기사보기 [인사] 제주도관광협회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사람들 인사 [인사] 제주도관광협회 기자명 입력 2015.04.02 16:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 닫기 [인사] 제주도관광협회 ▲ 수도권홍보사무소장 양성우 ▲ 호남권홍보사무소장 김창효 ▲ 회원지원실장(직대) 홍선영 ▲ 해외마케팅실장(직대) 양승필 ▲ 국내마케팅실장(직대) 김의남 ▲ 정책기획실장(직대) 오문향 ▲ 사업운영실장(직대) 김보형 ▲ 회원관리팀장 문명호 ▲ 해외마케팅팀장 김종훈 ▲ 마이스T/F팀장 김종범 페이스북 지면신문보기 저작권자 © 중부일보 - 경기·인천의 든든한 친구 무단전재 및 재배포 금지 로그인하면 내지역 뉴스와 원본 지면을 보실 수 있습니다. 회원가입 로그인 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 기사 1 40만 인파 몰린 소래포구축제…화려한 피날레 2 '보이스피싱 신고 거부' 의정부서도 있었다 3 안양시 곳곳 들개 출몰...주민들 "아이들 다칠까 불안" 4 경기도 펜싱, 전국체전 6연패 달성...금6·은6·동3개 획득 5 [송도굿마켓] 4만명 시민들 '착한나눔' 일상 되찾았다 PREMIUM로컬프리미엄 고양시 인천동구의회 인천동구 과천시 광명시 안양시 파주시 화성시 안성시 양평군 오산시 의정부시 여주시 안산시 이천시 의왕시 군포시 평택시 구리시 용인시 광주시 눈여겨 볼만한 개발정보 인천 2호선 김포 감정동·걸포북변·시네폴리스 3개역 신설 검토 인천~부천~서울 지하 고속도로 2027년 착공 LH 인천본부, 10월 11일부터 인천영종 A37블록 공공분양 접수 오늘의 헤드라인 김동연 핵심공약 '버스요금 200원 인하' 사실상 좌초 김동연 경기도지사의 역점 교통공약인 ‘시내버스 요금 200원 인하’가 사실상 좌초할 것으로 전망된다.김동연 지사가 준공영제 확대 등을 약속, 버스 노조와 극적 타결을 이뤄내는 등 ... 가짜 석유 판매 적발 10곳 중 2곳은 경기지역 업소 안양시 곳곳 들개 출몰...주민들 "아이들 다칠까 불안" 송도굿마켓 찾은 4만명 시민들 '착한나눔' 일상 되찾았다 로컬 인사이드 김유진 기자의 문화현장 사람과 사람들 '책'으로 통했다…용인 ‘동네책방축제’ 성료 인문기행-경기도의 전통사찰 고양 흥국사, 일제 암흑기때 구국위해 만일동안 염불… 중생엔 피안의 안식 선사 인문기행-경기도의 전통사찰 가을새도 지나칠 수 없는 곳… '화성 봉림사 자태는 그렇게 아름다웠다 하단영역 경기·인천의 든든한 친구 뉴스 지역종합 오피니언 라이프 기획취재 포토 TV중부 매체정보 경기도 수원시 팔달구 권선로 733 (인계동) 중부일보 문의전화 : 031-230-2114 팩스 : 031-233-3010~1 인천본사 : 인천광역시 남동구 구월남로 148 타워플러스 603호 TEL : 032) 437-0081 FAX : 032) 437-0085 중부일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 중부일보 - 경기·인천의 든든한 친구. All rights reserved. mail to webmaster@joongboo.com 위로 전체메뉴 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 오늘의운세 별자리운세 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 전체메뉴닫기</t>
+    <t>성주참외 중국인 관광객 입맛 사로잡기 위해 제주도 상륙 | Save Internet 뉴데일리 기사 공유하기 페이스북 트위터 카카오 블로그·카페 밴드 메일 https://www.newdaily.co.kr/site/data/html/2015/04/30/2015043000052.html 주소 복사 주소가 복사되었습니다. 원하는 곳에 붙여넣기 하세요. 검색 TV 경제 정치 사회 글로벌 북한 미디어 문화 연예 피플/인터뷰 포토 뉴스레터 뉴데일리 뉴데일리경제 뉴데일리TV 대구·경북 충청·세종·강원 시장경제신문 브랜드브리프 칸라이언즈 회사소개 광고 및 제휴 Copyright © Newdaily All rights reserved. 성주참외 중국인 관광객 입맛 사로잡기 위해 제주도 상륙 사회 추천뉴스 대장동 개발사업 언론중재법 논란 뉴데일리 여론조사 건국대통령 이승만 특종 황지현 기자 기자의 다른 기사 보기 입력 2015-04-30 12:21					｜ 수정 2015-04-30 12:53 ▲ 성주군은 중국인 관광객의 입맛을 사로잡기 위해 제주시 연동 바오젠거리에 ‘성주참외홍보관’을 건립해 지난 29일 개소식을 가졌다.ⓒ성주군 제공 경북 성주군(군수 김항곤)이 성주참외의 우수성 홍보 및 중국인 관광객들의 입맛을 사로잡기 위해 제주도에 ‘성주참외홍보관’을 건립했다.군은 한국의 내수를 흔드는 큰 손, 중국인 관광객의 입맛을 사로잡기 위해 제주시 연동 바오젠거리에 ‘성주참외홍보관’을 건립해 지난 29일 개소식을 가졌다.이날 개소식에는 홍보관을 찾는 방문객들을 대상으로 성주참외 무료 시식 및 참외 나눠주기와 함께 성주참외 홍보대사인 가수 조항조 초청 축하공연 등 다양한 행사를 통해 성주참외의 우수성을 널리 홍보했다.김 군수는 “‘성주참외홍보관’에서는 특상품 성주참외만을 취급, 중국인 관광객 뿐만 아니라 제주도민들에게도 세계의 명물 성주참외를 맛볼 수 있는 기회를 제공할 것”이라며 “제주도 성주참외홍보관을 전초기지로 삼아 중국 현지에까지 홍보관을 건립해 거대한 중국시장을 개척하겠다”는 포부를 밝혔다. 황지현 기자 news5530@newdailybiz.co.kr 기자의 다른 기사 보기 보도자료 및 기사제보 press@newdaily.co.kr [자유민주·시장경제의 파수꾼 – 뉴데일리 newdaily.co.kr] Copyrights ⓒ 2005 뉴데일리뉴스 - 무단전재, 재배포 금지 뉴데일리 댓글 운영정책 라이브리 댓글 작성을 위해 Javascript를 활성화 해주세요. 뉴데일리 경제 기준금리 3%시대 온다… 빅스텝 D-1 집 팔아도 빚 못 값는다… '고위험 가구' 부채 69조4000억원 'GTX-B' 급발진한 국토부… 계약방식 '패싱'당한 철도공단 '씁쓸' TSMC에 1위 내준 삼성… 반도체 승부수 '파운드리' '쌍둥이 적자' 위기 증폭…재정 -86.8兆·경상 -30.5억불 르노코리아, 빠른 출고·XM3 하이브리드로 '반격' 대구·경북 대구시, 미국 물산업전 참가 '세계 시장 문 두드리다' HDC현대산업개발, ‘경산 2차 아이파크’ 견본주택 개관 본격 분양 이철우 도지사, “중앙 중심 정책 지역 불균형 심화시켜” 이강덕 포항시장, 기업들 빠른 정상화 위해 태풍피해 현장 방문 민선8기 100일, 대구시 가장 큰 성과 ‘대기업유치’, ‘맑은 물 하이웨이 사업’ 뽑혀 메인페이지가 로드됩니다. 추천뉴스 尹 "전술핵 보유, 입장 밝힐 문제 아니다… 여러 의견 경청하고 있다" '새만금 7200배' 교수 일가에 놀아난 한전 자회사… 32억 지급했다 회수 새만금 해상풍력발전 사업권을 가진 회사를 중국계 기업에 넘기고 7200백 수익을 올린 것으로 알려진 지방국립대 S 교수가 동서가 대표로 있는 회사를 이용해 부당이득을 올리려했다는 의혹이 나왔다.한전KPS가 10일 국회 산업통상자원중소벤처기업위원회 소속 박수영 국민의힘 .. 대통령실, 野 '반일 프레임' 겨냥 "한반도·동북아 안보 현실 인식하고 대비해야" 北, 전투기 150대 띄워 무력 시위… 군, F-35A 대응 비행 전술핵부대 훈련 지도한 김정은 "적과 대화 필요 無… 핵무력이 전쟁억제" 핫이슈[단독]서울시, 태양광시설 설치에 혈세 1300억원 투입… 文정부 5년간, 박근혜정부 4배 예산 문재인정부 5년간(2017~2021년) 서울시 공공·민간 시설에 태양광시설 설치를 위해 약 1300억원 이상의 예산을 투입한 것으로 드러났다. 실제 집행된 예산도 890억원으로 박근혜정부 서울시 때보다 4배 가까이 증가한 것으로 10일 확인됐다.박원순 전 서울시장 시절.. 尹 지지율 32%… 1주 만에 0.8%↑ 소폭 반등 김의겸 "한동훈 美 출장, 이재명 대북코인 수사 목적"… 韓 "내부고발 하나" 검찰, 이스타항공 '부정 채용' 100여명 규모 파악… 내일 이상직 심문 '새만금 잭팟 교수' 연구비 전액 환수… 서부발전 "절차 돌입" 문체부 장관 갔다면 2500만원 들었을 텐데…영부인 끼면서 예산 15배 증가 지난 2018년 문재인 전 대통령의 부인 김정숙 여사가 인도를 방문한 것이 최근 논란이 되고 있다. 이런 가운데 당시 인도 측의  당초 요청대로 '문화체육관광부 장관'을 대표로 했다면 2600만원 가량 소요될 출장 예산이 '영부인'을 대표로 하면서 3억4000.. 北에 일제카메라 판 中…유엔 대북제재위에 “니들이 뭔데 그걸 묻나” 지난 5년 간 中서 실종된 한국인 261명…올 상반기만 29명 "文 전 대통령, 감사원법 위반"… 北피살 공무원 유족, 검찰에 형사고발 크름대교, 폭발로 차량·열차 운행중단…“러시아군 보급 차질 불가피” 푸틴, 최악 위기 직면했나… "권력과 목숨 잃을 수도" 분석까지 우크라이나 전황이 지금처럼 흘러가면 블라디미르 푸틴 러시아 대통령이 목숨을 잃는 상황까지 갈 수도 있다는 국제문제전문가 분석이 나왔다. 러시아군이 우크라이나 점령지에서 패전을 거듭하면서 푸틴 대통령이 최악의 위기에 내몰렸다는 지적이다.뉴질랜드 전문가 "현 상황 타개 못.. [부고] 이경자 전국학부모단체연합 상임고문 별세…향년 66세 [포토] 북한군 피격 공무원 유족, 문재인 전 대통령 등 형사고소 [포토] 역사교육정상화를위한시민연대 출범(전문) [오늘 날씨] 흐리다 차차 맑아져… 아침 최저 4도 미디어비평 "KBS 간부, 1000만원 주고 '대북 코인' 20만개 받아"… KBS노조 폭로 한 대북교류단체가 사실상 북한을 지원하기 위해 발행한 '대북 코인(APP427)' 20만개를 KBS의 고위급 간부가 받은 것으로 확인돼 파문이 일고 있다.7일 배포한 성명에서 이 같은 사실을 폭로한 KBS노동조합(위원장 허성권)은 해당 간부가 코인 발행 단체 측에 10.. 이승만 포럼 [134회]이승만이 대한민국이다 (이주영 건국대 사학과 명예교수) [133회]이승만의 미국 기독교 네트워크와 정치외교활동(유지윤 이승만연구원 박사) 칼럼 류근일 뉴데일리 논설고문 / 전 조선일보 주필 [류근일 칼럼] 권영세의 뚱단지 같은 북한방송 타령 이철영 [이철영 칼럼] &lt;노란봉투법&gt; 만들면 '노동자 세상' 오나? 류근일 뉴데일리 논설고문 / 전 조선일보 주필 [류근일 칼럼] 이재명+문재인+이준석·유승민의 난(亂) 특종 [단독] 협력업체 통장 빌려 수천만원, 유령 연구원 등록해 1억… '새만금 잭팟 교수' 횡령 의혹 [단독]'새만금 7200배' 교수 연구비 횡령 의혹… 대학원생들도 조직적 동원 정황 [단독] 민주당, 7월 "태양광 늘려야" 두 달 뒤… 태양광 피해만 78건 미디어비평 "'김어준 뉴스공장' 공정성·객관성 개선 노력 없어"… 서울시, TBS에 '기관·기관장 경고' 'TBS 간판' 신장식, 대통령에게 "정신과 치료 받으라" 막말 MBC노조 "소수노조 목소리에도 귀 기울여 달라"… 국제기자연맹에 호소 기준금리 3%시대 온다… 빅스텝 D-1 TSMC에 1위 내준 삼성… 반도체 승부수 '파운드리' TSMC, 삼성 꺾고 2조원 차 첫 1위메모리 지고, 파운드리 뜨고… 판도 바뀐 반도체 시장파운드리 급성장… 글로벌 최강 TSMC 따라잡을 '삼성의 전략' 관심 집중 [IT 발품러] 아이폰14 오프라인 매장... 프로·맥스 '품절', 가격 '천차만별’ LG전자, '빌트인·스마트홈' 등 차세대 가전 투자 집중 눈길 LG전자, 고성능 'AI엔진' 탑재 '휘센 상업용 시스템에어컨' 선봬 [국제유가] 中 수요 둔화 영향 '하락'… 'WTI 91.13弗' 르노코리아, 빠른 출고·XM3 하이브리드로 ‘반격’ 올해 4월 기점으로 내수 회복세 보여SM6·XM3 출고 대기기간 1개월에 불과 빠르면 이달 내 XM3 하이브리드 출시 삼성물산-제일모직 합병, "장기적 관점 시너지 기대" LG 임직원 직접 참여한 'LG시도쏭' 영상, 1천만뷰 돌파 [단독] KT&amp;G '릴' 신제품 11월 출시… 아이코스와 정면 승부 11월 초 공식 출시 발표 후 ‘릴 하이브리드’ 신제품 공급3세대 ‘릴 하이브리드’에는 스마트폰 연계 AI기능 탑재11월 출시되는 ‘아이코스 일루마’와 치열한 경쟁 예고 SPC 파리바게뜨, 국가브랜드경쟁력지수 3년 연속 1위 中 의존도 낮추는 아모레… 마몽드 오프라인 매장 철수 어른들의 품절템 '버터맥주' 카스 재쳤다… 매출 2위 등극 경영 행보 속도 내는 이재용… 12일 '삼성준법위' 참석 여부 촉각 지난 8월 복권 이후 삼성준법위원회 미참여추석 연휴 이후 해외출장 및 국내 사업장 돌며 경영 행보 강화오는 12일 열리는 위원회서 다양한 논의 이뤄질 듯 [生生국감] 車사고 분쟁조정 논란… "보험사 추천위원만 가득" 오비맥주 "'카스 0.0', 논알코올 음료 시장 점유율 1위" 세븐일레븐, 업무용 친환경 전기차 110대 추가 보급… ESG경영 실천 심판 앞둔 신라젠…17만 소액주주 눈물 그칠까 한국거래소 시장위, 12일까지 신라젠 상장폐지 여부 결정이르면 11일 상폐 여부 결론…거래재개 시 2년 5개월만신라젠, R&amp;D 역량 확보 등 개선 나서…소액주주 기대감 높아 유안타증권, 미국주식 소수점 거래 서비스 선봬 KB자산운용, 국내 최초 글로벌 원자력 ETF 선봬 韓 빅스텝·美 CPI·실적 부진까지…코스피 변동성 커진다 부동산 거래 '역차별' 논란… 외국인, 7년여간 아파트 3만채 사들여 온·오프라인 하나로 연결… GS리테일, 통합앱 '우리동네GS' 출시 코로나도 힘든데 수수료까지… 면세점, 中 보따리상에 4조원 썼다 中, 美 반도체 통제에 '희토류' 수출 규제 만지작 제약·의료·바이오 이어폰 ‘노이즈 캔슬링’ 기능에 주목… 소음성 난청에 효과적 개량백신 접종 시작… 피해보상 논란 속 저조한 접종률 우려 정은경 전 질병청장, 분당서울대병원서 근무… 연봉 8000만원 수준 연세의대, 항암바이러스 치료 효과 높이는 운반체 개발… 전달속도 강점 전체기사 더보기 '파친코' 김민하, '비욘드시네마상' '라이징스타상' 2관왕 영예 '신화' 신혜성, '도난 차' 음주운전… 음주측정 거부하다 '체포' [뉴데일리TV] 北 미사일, 美 항모 머리 위 넘어가…고도 너무 높아 요격 불가! 시도교육감들, 교육교부금 개편 반대 입장 고수… 정부와 입장차 여전 서울시, 사대문 안에서 '수소 충전' 가능해진다… 7일부터 시범운영 '미녀 골퍼 불륜설'에 불똥 튄 비·조정석‥ "허위사실 유포에 법적 대응" 與 "MBC, 조작 방송" vs 野 "언론 탄압"…국감서 '尹 발언' 공방 '필로폰 투약' 文정부 청와대 행정관, 1심서 징역10월에 집행유예 2년 대학 강사가 교수로 둔갑… '허위광고·불법' 코딩학원 86곳 적발 변호사는 음주운전해도 '경징계'… 변협, 5년간 '영구제명' 단 1건 [뉴데일리TV] 망조 든 러시아, 국민들 대탈출! 명분 없는 전쟁 7개월째, 민심 이반 "나만의 '반려 오브제'를 찾아서"… '크래프트 서울' '약자와의 동행' 서울시, 6개 의약단체와 '보건의료협의체' 구성 檢, '허리디스크' 정경심 형집행정지 4일 재심의 이종배 서울시의원 "MBC, 언론탄압 주장 전에 진실보도가 먼저다" [뉴데일리TV] 북한인권운동 평생 헌신 미국인 "고난의 행군 시절 또 온다" 구속된 돈스파이크, 알고보니 마약 전과 3범 톱스타 몸담았던 前 연예기획사 대표, '프로포폴 불법투약' 혐의 구속 돈스파이크, 필로폰 1000회 투약분 소지 '덜미'… "죗값 달게 받겠다" 포토뉴스 [포토] 농협 하나로마트 "임산부의 날 맞아 보양재료 할인합니다" [포토] 역사교육정상화를위한시민연대 출범(전문) [포토] 메타버스로 故 김자옥 만난 오승근 회사소개 오시는 길 인재채용 제휴안내 회원약관 저작권안내 이메일 무단수집거부 개인정보처리방침 청소년보호방침(책임자: 국승환) 광고문의 보도자료 : press@newdaily.co.kr 기사제보 제안마당 법인명: 뉴데일리(주) | 제호명: 뉴데일리 | 주소:（100-120） 서울시 중구 남대문로 5가 120 단암빌딩 3층 | 등록번호: 서울 아00115 | 등록일: 2005년 11월 9일 | 발행인: 이성복 · 편집인: 이진광 대표전화: 02-6919-7000 | 정치·사회 편집국: 02-6919-7002 | 경제 편집국: 02-6919-7003 | 광고국: 02-6919-7012 | 팩스: 02-702-2079 Copyright © Newdaily All rights reserved.</t>
+  </si>
+  <si>
+    <t>[조성신의 富동산 현장] 관광에 교육·산업 두른 제주도 외지인 거래량 `껑충` - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 [조성신의 富동산 현장] 관광에 교육·산업 두른 제주도 외지인 거래량 '껑충' 조성신 기자 입력 : 2015.04.29 11:34:26   수정 : 2015.04.29 13:54:56 제주국제공항을 빠져나와 1135국도를 40~50분 달리면 만날 수 있는 ‘제주영어교육도시’ 모습. 이 곳은 지난 2008년 10월 제주영어교육도시 도시개발구역으로 지정된 후 초·중·고등학교 12개교, 총 9020명의 학생 유치를 목표로 지금까지 숨 가쁘게 달려왔다. [매경DB] 외지인이 제주도의 건축물과 토지를 매입하는 사례가 크게 증가하고 있는 것으로 나타났다. 온나라 부동산정보 포털에 따르면 최근 5년(2010년~2014년)간 제주도 내 건축물(주거용·상업용)의 거래현황(매입자 거주지 현황)은 지난 2010년과 2011년 각각 3008건, 2922건에 불과하던 외지인 거래량이 2013년 5974건, 2014년 5971건으로 두 배 가까이 증가했다. 같은 기간 외지인의 제주도 토지매입(매매)량 역시 2010년 7135필지, 2011년 8249필지에서 2013년 1만617필지, 2014년 1만5220필지로 늘어났다. 부동산 업계는 외지인 거래량 증가는 JDC(제주 국제자유도시개발센터)를 중심으로 다양한 개발사업이 한몫했다고 입을 모으고 있다. (주)제주 건축물 외지인 거래량(단위: 건)과 (우)제주 토지매매 외지인 거래량(단위: 필지) [출처: 온나라 부동산정보 통합포털] 대표적인 것이 ‘제주영어교육도시’다. 제주 서귀포시 대정읍 일원에 들어서는 ‘제주영어교육도시(379만2000㎡ 규모)’는 총 사업비 1조7810억원을 투입해 2021년 말까지 12개의 국제 초·중·고등학교와 외국교육기관(10여개의 단과대), 영어교육센터, 교육문화시설(오페라, 연극, 무용, 전시회 등 운영) 등을 조성하는 사업이다. 현재 NLCS-jeju(영국), KIS(공립학교), BHA(캐나다) 등의 국제학교 세 곳이 운영 중이며 미국의 세인트존스베리아카데미가 2017년 개교 예정이다. JDC에 따르면 지난 3월 현재 국제학교 학생들은 평균 1.05명의 가족을 동반하고 있으며 국제학교 학생 및 교직원과 그 가족을 포함한 4367명이 제주 도내로 신규 유입됐다. 또 국제학교를 찾는 외국인 유학생도 늘고 있어 KIS 제주와 NLCS 제주, BHA 등 3개 학교의 외국인 학생 수가 2011학년도(2011년 9월~2012년 8월) 23명에서 2014학년도 185명으로 증가했다. 전체 학생 가운데 외국인 학생이 차지하는 비율도 2013학년도 7.3%에서 지난해 9.3%로 높아졌다. 이 때문에 체류비자 취득자도 2010년 2명에서 지난해 말 현재 1007명으로 늘었다. 또한 동북아 최대 규모의 한국형 복합리조트 개발로 주목받고 있는 ‘신화역사공원’은 올해 2월 착공해 오는 2018년까지 특급호텔, 컨벤션센터, 휴양리조트, 테마파크, 워터파크, 세계음식테마거리, 면세점, 외국인 전용 카지노, 고급 쇼핑시설 등이 갖춰진 복합 리조트로 조성될 예정이다. 지난 2010년 완공된 제주첨단과학기술단지는 제주에서 처음으로 조성된 국가산업단지다. 2012년 본사 이전을 완료한 인터넷포털 다음카카오(본사) 등 IT기업 71개, BT 관련 기업 30개 등 총 120개에 이르는 첨단기술 기업이 입주해 있다. 또 지난해 4월 개관한 제주항공우주박물관은 하루 평균 1000여 명이 꾸준히 찾고 있는 관광명소로 떠오르고 있으며 JDC와 녹지그룹이 사업협약을 체결한 헬스케어타운은 총 1조원 규모를 투자해 단계별 개발을 추진 중이다. 상황이 이렇다 보니 최근 영어교육도시 주변 집값도 요동치고 있다. 2억4500만원(전용 84㎡)에 분양한 캐논빌리지(2011년 입주)의 경우 현재 6400만원 뛴 3억900만원에 거래되고 있다. [매경닷컴 조성신 기자] 매일경제 엮인글• 국토교통부보다 더 빠른 매경 리얼타임 실거래가 바로가기!• 추천 경매 물건 확인! [ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] 오늘의 핫뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나"   1시간 5분"과천 송파를 2년전 분양가로"…'줍줍의날' 미리 메모   18시간 33분경기침체를 알리는 지표가 시장의 호재가 되는 역설 [핫이슈]   2시간 2분감사원 국감두고 여야 기싸움…10분만에 '정회'   55분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 관련뉴스 [조성신의 富동산 현장]선택 폭 넓어진 ‘임대.. [조성신의 富동산 현장] 재건축·재개발 물량 .. [조성신의 富동산 현장] 중개보수 요율 조정….. [조성신의 富동산 현장] 재건축 이주난 골머리.. [조성신의 富동산 현장] 동일 면적이라면··.. 인기뉴스 종합 연예 스포츠 1"하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 美.. 2"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 3"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 음.. 4[단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계약.. 5[단독] 文정부 탈원전 후폭풍…핵폐기물 비용 동결에 1... 1선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 2치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 3김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5‘인형 아니야?’...홍진영, 젖은 머리로 뽐낸 섹시美 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 3조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 4유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 5박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 [조성신의 富동산 현장] 관광에 교육·산업 두른 제주도 외지인 거래량 `껑충` - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>제주도 찾은 최경환 부총리 "관광산업 종합대책 마련" 강조 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 산업 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 산업 &gt; 제주도 찾은 최경환 부총리 "관광산업 종합대책 마련" 강조 파이낸셜뉴스입력 2015.04.24 15:45수정 2015.04.24 15:45 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 최경환 경제부총리 겸 기획재정부장관(오른쪽)이 24일 제주특별자치도를 방문한 자리에서 오설록 티뮤지엄에 들러 원희룡 제주지사(왼쪽) 등과 녹차를 마시며 이야기를 나누고 있다. 정부가 중국인 등을 겨냥해 관광산업 활성화를 위한 종합 대책을 상반기 중에 마련한다. 포화상태인 제주공항도 빠른 시간안에 손보기로 했다. 서울, 제주 등에는 세계 최고 수준의 대형 시내면세점이 들어설 수 있도록 추진할 계획이다. 최경환 경제부총리 겸 기획재정부 장관은 24일 제주도 관광 현장을 방문해 지역 관광업계 종사자들과 함께 한 오찬간담회 자리에서 "관광산업 활성화 대책을 올 상반기 중으로 발표하겠다"고 밝혔다. 이날 최 부총리가 찾은 제주는 지난해 방문 관광객만 1000만명을 돌파해 2013년 하와이(817만명), 2012년 발리(760만명)보다 많은 숫자를 기록했다. 특히 이 가운데 중국인으로 불리는 '요우커(遊客)'만 지난해 286만명이 다녀갔다. 제주에 놀러오는 요우커는 2012년 108만명, 2013년 181만명 등으로 급격히 증가하고 있다. 최 부총리는 "예전에는 제주도가 돌, 바람, 여자가 많은 섬이었다면 이제는 돌, 바람, 중국인이 많은 섬이라고 해도 과언이 아니다"면서 "지난해 제주도의 취업자 증가율이 3.9%로 전국의 2.1%에 비해 높고, 대형소매점 판매 증가율도 10.2%(전국 -1.0%)로 전국 평균을 크게 상회하는 등 훈풍이 지속되고 있다"고 언급했다. 이같은 관광객들의 제주도 러시 행렬에 정부도 대책 마련에 분주한 모습이다. 최 부총리는 공항, 면세점, 크르주시설 등 관광인프라 확충의 중요성을 강조하면서 "제주공항이 포화상태라는 느낌을 갖는다. (확충 등에 대해선)국토교통부 용역이 거의 마지막 단계여서 조만간 결론이 날 것"이라면서 "제주공항 확충을 위한 작업을 조속히 추진하겠다"고 밝혔다. 실제로 제주공항의 경우 피크시간대인 오전 9~10시, 밤 20~21시 사이에는 활주로 시간당 용량(34회/h)을 모두 사용하는 등 매우 혼잡한 것으로 나타났다. 그는 또 "세계 최고 수준의 경쟁력을 갖춘 대형 시내면세점 설치를 추진하고 외국인 관광객 부가가치세 사후환급절차 개선방안도 마련할 계획"이라고 밝혔다. 외국인 관광객이 면세점에서 물건을 산 뒤 별도 검사절차 없이 환급받을 수 있는 세액을 1만원 미만에서 5만원 미만으로 올리는 방안 등이 대표적이다. 이날 참석자들의 관련 건의도 줄을 이었다. 정부의 정책 일관성을 우려하는 질문에 정은보 기재부 차관보는 "지난해 9월 무역투자회의에서 복합리조트 개발과 관련한 청사진을 발표했다. 복합리조트 투자, 심사, 진행 사항을 돕는 관계부처간 태스크포스(TF)도 있다. (사업진행에)어려움이 없을 것이라고 자신있게 말할 수 있다"고 답변했다. 오라골프 양경홍 대표는 "(골프장)개별소비세 및 기타 세금들에 대한 조세특례 일몰이 올해 말이다보니 2만4000원 정도의 세금이 (업소인)우리 비용으로 돌아올 가능성이 크다"고 우려했다. 이에 대해 최 부총리는 "(조세특례는)2002년 국제자유도시로 지정되면서 관광활성화 등 지역경제차원에서 2015년 말까지 한시적으로 해온 제도들"이라면서 "일몰기간이 도래하기 때문에 종합평가를 해보겠고, 대통령이 골프산업 육성 얘기도 하고, 또 제주도는 관광지 특성이 있어 특별한 이유가 없으면 연말 세법 개정시 긍정적인 협의가 가능하다고 말씀 드린다"고 설명했다. 이날 최 부총리는 오설록 티뮤지엄, 바오젠거리, 신라면세점 등 외국인 관광객에게 인기가 높은 관광지를 둘러보고 국내 최초의 외국인 투자 복합리조트인 '리조트월드 제주' 사업 현황에 대한 브리핑도 들었다. 최 부총리는 "현재 한국경제에서 가장 '핫(hot)'한 산업을 꼽으라면 바로 관광산업일 것"이라면서 "우리의 전통과 세련된 한류 문화, 국토의 삼면을 둘러싸고 있는 바다, 국토의 70%를 차지하고 있는 산지 등 아름다운 자연경관을 어떻게 관광자원화하느냐가 관건"이라면서 관광산업을 미래 전략 산업으로 적극 육성할 뜻을 내비쳤다. 그러면서 그는 "베이징과 상하이 같은 중국 북부지역은 홍콩보다 우리나라가 더 가까워 요우커의 방문수요 잠재력이 무궁무진하다"며 "쇼핑 이외의 볼거리, 먹거리, 즐길거리를 적극 개발하고 관광지도 전국으로 확대해 나가야 한다"고 강조했다. bada@fnnews.com 김승호 박소연 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도의원 "상가리관광지 환경평가심의 무효화해야" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도의원 "상가리관광지 환경평가심의 무효화해야" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도의원 "상가리관광지 환경평가심의 무효화해야" 송고시간2015-04-23 15:35 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 전지혜 기자 기자 페이지 (제주=연합뉴스) 전지혜 기자 = 강경식 제주도의회 의원은 23일 제주시 애월읍 상가리 관광단지 조성사업에 대한 환경영향평가 심의 회의가 문제투성이어서 이번 심의를 무효화해야 한다고 요구했다. 강 의원은 이날 도의회 제329회 임시회 본회의에서 5분 발언을 통해 "이번 회의는 소집과정에서의 조례 위반, 담당 공무원의 부적절한 발언 등 공정성과 객관성에 심각한 문제가 있다"며 이같이 밝혔다. 강 의원은 이 사업 예정지가 대부분 해발 500ｍ 이상이고, 최고 해발 580ｍ를 넘어서는 한라산국립공원 인근 고지대이며, 지리정보시스템(GIS) 생태계 1등급 지역이자 멸종위기 2급 애기뿔소똥구리 서식지라서 원형 보전되야 하는 곳이라고 지적했다. 광고 사업 부지의 30%인 공유지 10만여㎡는 주민들이 수백년간 마을 공동목장으로 사용하던 곳으로, 목장용지 이용에 대해 주민 동의가 부족하며 현재 소유권 관련 소송이 진행되고 있다는 점에 대해서도 문제 삼았다. 강 의원은 "이처럼 문제가 많아 두 차례나 환경영향평가 재심의 의결된 사업이 원희룡 도정 출범 이후 조건부 동의 의결돼 제주의 소중한 중산간이 난개발의 위기에 처했다"며 "중산간 개발을 억제하겠다는 가이드라인은 어디로 간 것이냐"고 비판했다. 강 의원은 도 감사위원회에 심의 회의의 위법성 여부를 조사해 무효 여부를 가리고 담당 공무원은 엄중히 문책하라고 주문하고, 동료 의원들에게는 이 사업의 문제점을 꼼꼼히 살펴 환경영향평가 동의 과정에서 확실히 제동을 걸어달라고 당부했다. 원 지사에게는 절차를 조금 보완해 결국 이 사업을 허가할 건지, 이 사업을 비롯해 지사 취임 전부터 추진된 개발사업도 중산간 난개발 방지 가이드라인에 포함되는지 등 입장을 분명히 밝힐 것을 촉구했다. atoz@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/04/23 15:35 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 영상 기사 재생시간 01:38 [영상] 러시아 본토-크림반도 연결 크림대교서 대규모 폭발…통행 중단 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 80대 아버지 흉기로 찔러 살해…60대 아들 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 동거녀의 13살 딸 엉덩이 깨물어 학대…50대 징역형 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 혼자 사는 70대 여성 살해하고 달아난 50대 검거 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) '90년대 강남 큰손' 조춘자 또 분양사기…징역 7년 추가 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 스타트렉 선장 "우주여행, 장례식 같았다…가장 슬픈 경험" 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 김하성, 3볼넷 3득점 1도루 '펄펄'…샌디에이고, NLDS 진출 칼 꺼낸 최하위 한화 이글스, 신정락 등 12명과 작별 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 [전국체전] 용인시 "우상혁 영입 확정"…공식 입단은 내년 1월 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 지독한 미스터리에 감성 더한 '작은아씨들' 시청률 11.1%로 종영 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 尹대통령 "북핵 위협 날로 심각…한미·한미일 안보협력 대응" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 러 우크라 전역 대규모 공습…최소 11명 사망, 주요 인프라 파괴 美, 김정은 '대화 불필요' 주장에 "여전히 외교적 접근 전념" 올해 누적 무역적자 300억달러 돌파…10월 1∼10일 수출 20.2%↓ 광고 댓글 많은 뉴스 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 댓글수 59 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 24 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도, 침체된 일본 관광시장 활성화 위해 본격 나선다-국민일보 시사 시사 &gt; 전체기사 제주도, 침체된 일본 관광시장 활성화 위해 본격 나선다 입력 : 2015-04-20 15:41 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 침체된 일본 관광시장을 활성화하기 위해 다양한 방안모색에 나선다. 제주도는 한국관광공사 주최로 일본의 도쿄·오사카·후쿠오카 등에서 열리는 ‘Korea 지자체 위크 in Japan’에 참가, 제주관광설명회와 B2B(비지니스상담), B2C(소비자상담) 세일즈 등을 실시했다고 20일 밝혔다. 이어 대한항공 도쿄지사 등 유관기관을 방문, 제주관광 활성화를 위한 공동사업 추진 및 일본 항공노선의 안정적 운항·노선확대와 관련한 협조사항 등을 요청할 방침이다. 클럽투어리즘, 킨키니혼투어리스트, 요미우리여행사 등 현지 대형여행사와의 세일즈콜도 전개한다. 이를 토대로 신규상품 개발을 위한 최신 콘텐츠 제공 및 상품 구성시 도내 업체와의 적극적인 공동사업 추진을 요청키로 했다. 또 일본 대형여행사와 연 2000명 모객을 목표로 업무협약 체결도 추진한다. 도는 이를 위해 요코하마 유선 크루즈 등 현지 크루즈 선사를 방문, 크루즈 제주 취항 유도 및 상품개발시 도내업계 참여를 건의할 계획이다. 도는 일본 현지업계와의 네크워크 강화는 물론 ‘Jeju Global Food Festival’(6월), ‘LED ART FESTA’(9월), 한라산단풍트래킹(10월), 올레걷기축제(10월) 등 하반기 개최예정인 대형 이벤트에 대한 대대적 홍보활동도 벌여 나간다. 도 관계자는 “일본 관광시장을 겨냥한 새로운 상품기획과 개발에 착수했다”며 “일본 현지 업계와 원만한 협력 및 판매가 이뤄질 수 있도록 적극적인 지원활동을 펴 나가겠다”고 말했다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다” 국제유가, 주유소 기름값 영향 시점은…제주도, 시차 조사 착수 경기도, 중소기업·도민 대상 지식재산 역량 강화 지원 외국인 노동자 상대 마약 유통, 태국인 무더기 검거 美 명문 스탠퍼드대, 캠퍼스 내 대낮 성폭행 잇따라</t>
+  </si>
+  <si>
+    <t>5~6월 제주도 떠나면 인기 관광지 입장 무료 5~6월 제주도 떠나면 인기 관광지 입장 무료 - 스포츠 월드- 세계일보 세계비즈 스포츠월드를 시작페이지로 지면보기 구독신청 RSS 스포츠월드 Naver Kakao 스포츠 전체메뉴 검색 스포츠 야구 프로야구 해외야구 야구일반 축구 프로축구 해외축구 축구일반 골프 국내골프 해외골프 골프일반 농구/배구 프로농구 NBA 농구일반 프로배구 배구일반 e스포츠 스포츠종합 격투기 해외스포츠 스포츠일반 연예 방송/TV 가요/음악 영화 공연/문화 해외연예 연예일반 문화일반 레저&amp;조이 경륜-경마-경정 토토 레저-조이일반 라이프 여행/레저 건강 포토 핫포토 스포츠 연예 이슈 사회 칼럼 피플 온라인이슈 5~6월 제주도 떠나면 인기 관광지 입장 무료 입력 : 2015-04-14 19:02:08 수정 : 2015-04-14 19:02:08 인쇄 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 참좋은여행, 제주도 관광지 입장권 무료 증정 이벤트 〔스포츠월드=강민영 선임기자〕 국내대표 직판여행사 참좋은여행이 5~6월 출발고객 대상 제주도 관광지 입장권 2종 증정 이벤트를 진행한다. 5월 7일부터 6월 30일까지 제주도 에어카텔 자유여행 상품을 이용해 출발하는 고객에게 제주도 유명 관광지 입장권 2종 세트 6가지 중 한 가지를 제공하며, 예약 시에 고객이 고를 수 있다. 단, 2대 가족이 함께 출발할 경우에 지급한다. 증정품은 우도랜드 우도도항선 왕복권과 제주 민속촌, 메이즈랜드, 미니랜드 입장권 조합 3가지와 조은승마 기본코스 이용권과 유리 박물관, 소인국 테마파크, 세계 자동차 박물관 입장권 조합 3가지 총 6가지다. 우도도항선 왕복권을 포함한 티켓 묶음은 1만3000원 상당, 조은승마 이용권을 포함한 묶음은 2만1000원 상당이다. 참좋은여행 관계자는 ‘제주도가 가장 사랑 받는 시기 5~6월을 맞아 가족과 함께 즐거운 추억을 만들 수 있게 체험 입장권을 제공하는 이벤트를 기획하게 됐다’며 “앞으로도 고객에 대한 감사의 의미로 다양한 사은 행사를 진행할 계획”이라고 말했다. 제주도 이벤트에 대한 자세한 내용은 참좋은여행 이벤트 페이지 (http://www.verygoodtour.com/Event/EventReview?evtSeq=3811&amp;PageIndex=1&amp;Attr=#view)에서 확인할 수 있다. 문의 (02)2188-4080 mykang@sportsworldi.com 참좋은여행의 제주도 이벤트. 제주도 풍경. &lt;스포츠월드&gt;스포츠월드&gt; 20150414004898 1145050000000 0 2015-04-14 19:2:8 2015-04-14 19:2:8 0 5~6월 제주도 떠나면 인기 관광지 입장 무료 스포츠월드 강민영 0028f8cc-c883-4815-9315-2c6633fff652 많이 본 뉴스 연예 스포츠 라이프 포토 연예 스포츠 라이프 포토 HOT레드 별, 막내딸 희귀병 투병 고백 "폭풍 같은 한 달" '임창정♥' 서하얀, 이러니 살찔 틈이 없지 톱모델 한혜진, 20년간 유지한 모닝 루틴 돈 스파이크, 필로폰 1천 회분 압수 '충격' 조예영♥한정민, 공항서 애틋한 이별 제시, 싸이 품 떠나더니…안타까운 링거 투혼 곽도원, 제주서 음주운전…차기작 불똥 육준서, 공적 활동 중단 선언…왜? '고딩엄빠2' 출연자, 조작 방송 폭로…"작가가 시켜" 포토 회사소개 지면광고 온라인광고 구독신청 연락처 독자인권위원회 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 스포츠월드 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아52423 등록일(발행일) : 2019년 6월 23일 발행인·편집인 : 정희택 전화번호 : 02-2000-1800 청소년보호 책임자 : 류근원 Copyright ⓒ 스포츠월드 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 논란 상가리관광지 조성사업 조건부 '통과' &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 논란 상가리관광지 조성사업 조건부 '통과' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 논란 상가리관광지 조성사업 조건부 '통과' 기자명 고병수 기자 입력 2015.04.20 09:33 수정 2015.04.20 09:35 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 중산간 난개발을 우려하며 제주시민단체들이 허가취소를 주장하는 가운데 전임도정의 허가를 명분으로 제주시 애월읍 상가리에 관광지 조성사업이 조건부 통과됐다.제주특별자치도는 제주시 애월읍 상가리 소재에 들어서는 상가리 관광지 조성사업에 대한 환경영향평가서가 도 환경영향평가심의위원회에서 조건부로 통과됐다고 20일 밝혔다.도 환경영향평가 심의위원회는 지난 17일 청봉INVESTMENT 주식회사에서 제출한 환경영향평가서 검토의견 보완서를 심의하고, 애기뿔소똥구리 개체군 유지에 필요한 최소면적과 이들 곤충의 미소환경인 우분 유지, 친환경적인 생태연못 조성, 해당지역 주민의견 수렴이 투명하게 진행되도록 등의 보완 요구를 했다.또한 공유지인 경우 상가리 주민들에 요구에 따라 저류지 및 일부 시설물을 제외하고 방목지로 사용하도록 현 상태를 유지토록 했다.청봉INVESTMENT(주)는 제주시 애월읍 상가리 2156번지 일원 36만496㎡에 오는 2018년 까지 사업비 1500억원을 투자해 콘도, 한류문화복합시설, 테마박물관 등을 조성하는 내용으로 도에 환경영향 평가서를 제출한 바 있다. 이 사업은 지난해 7월 기본방침을 정하기 전인 지난 2010년 3월 '관광휴양형 개발진흥지구'로 지정돼 관련 법령에 따라 행정절차를 이행중인 사업이라고 도는 주장했다.환경영향평가심의위원회는 사업시행으로 인한 환경적 피해를 최소화하는 저감방안을 마련해 중산간을 보전하도록 환경영향평가서 심의했다.관계자는 "도는 신규로 지정되는 대규모 투자사업에 대해 제주의 미래가치를 높이기 위한 대규모 투자사업에 따른 기본방침을 적용해 제주의 환경자산인 중산간을 보호한다는 원칙은 변함이 없다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 일본 관광시장 활성화 분주 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 10:50 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 일본 관광시장 활성화 분주 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 문화 제주도, 일본 관광시장 활성화 분주 손혜철 승인 2015.04.17 11:17 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-문화] 침체된 일본 관광시장 활성화를 위하여 제주도와 제주관광공사의 발걸음이 빨라지고 있다. 제주특별자치도와 제주관광공사는 오늘 4월 16(목)부터 20(월)까지 한국관광공사 주최로 일본의 도쿄, 오사카, 후쿠오카에서 열리는 ‘Korea 지자체 위크 in Japan'에 참가하여 제주관광설명회와 B2B(비지니스상담), B2C(소비자상담) 세일즈 등을 실시한다. 4. 22(수)~4. 24(금) 기간 동안에는 KTO 도쿄지사 및 대한항공 도쿄지사 등 유관기관을 방문하여 제주관광 활성화를 위한 공동사업 추진 및 일본 항공 노선의 안정적 운항, 노선확대와 관련해서 협조를 요청하는 한편, JTB, HIS, 클럽투어리즘, 킨키니혼투어리스트, 요미우리여행사 등 현지 대형여행사 세일즈콜을 전개, 신규상품 개발을 위한 최신 콘텐츠 제공 및 상품 구성시 도내 업체와의 적극적인 공동사업 추진을 요청하고 연 2,000명 모객을 목표로 업무협약 체결을 준비한다. 또한 요코하마 유선 크루즈 등 현지 크루즈 선사를 방문, 크루즈 제주 취항 유도 및 상품 개발시 도내 업계가 참여할 수 있도록 지역경제 활성화 방안에 대해서도 공동모색할 예정이다. 도와 제주관광공사는 이번 세일즈콜을 통해 일본 현지업계와의 네크워크 강화는 물론 Jeju Global Food Festival(6월), LED ART FESTA(9월), 한라산단풍트래킹(10월), 올레걷기축제(10월) 등 하반기 개최되는 대형 이벤트들을 적극 홍보함으로써 이를 활용한 새로운 상품을 기획하고 판매될 수 있도록 적극 지원할 계획이다. 제주특별자치도 관계자는 최근 원희룡 지사의 한중일 관광장관회의 특별강연을 계기로 제주-중국, 제주-일본간 직접적인 관광협력과 이에 따른 타분야 협력의 시너지를 이끌어 내는 시발점이 될 수 있도록 현지 집중 마케팅을 통해 관광업계와의 네트워크를 활성화 해나감으로써 일본인 관광객 유치 회복에 지속적으로 노력을 기울여 나가겠다고 밝혔다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 손혜철 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 옥천군, ‘정신건강의 날’ 및 옥천군정신건강복지센터 개소 10주년 기념 행사 개최 보은군 삼승면지역사회보장협의체, 독거노인 주거환경 개선 사업 앞장 보은군, 제37회 보은사우회 정기회원전 성료 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>中 웨딩관광객 제주도로...제주관광공사, 아이웨딩과 유치 지속 노력 - 헤럴드 POP 기후위기시계 × News 방송 가요 영화 드라마 예능 이슈 ●실시간 뉴스 패션 中 웨딩관광객 제주도로...제주관광공사, 아이웨딩과 유치 지속 노력 2015.04.10 11:01 [헤럴드POP=홍동희 기자]따뜻한 봄과 중국의 청명절(淸明節·4월 5일)연휴를 맞아 제주도를 찾는 중국 예비부부들이 늘고 있다. 제주도는 이미 지난달 말부터 유채꽃이 만발하여 그야말로 ‘노란바다’를 이루고 있다. 결혼을 앞둔 중국의 수 많은 예비부부가 노란물결을 따라 웨딩촬영을 위해 제주로 입도 했다. 중국예비부부가 제주의 봄에 대해 어떠한 매력을 느끼고 있는지 대하여 수년간 제주에서 웨딩서비스를 제공해오고 있는 ㈜아이패밀리SC(아이웨딩)의 한 관계자는 “매년 1000만쌍이 결혼하는 중국에서 한국의 드라마와 K-POP 등 한류열풍이 거세지면서 웨딩촬영을 위해 한국을 찾는 중국 예비부부들이 늘어나고 있는데다 왕벚꽃과 유채꽃이 만발한 제주도의 아름다운 풍경에 매료되어 끊임없는 발길이 이어지고 있다”며 증가 원인을 밝혔다. 사진제공=아이웨딩 지난 30일 제주도에서 웨딩촬영을 한 중국 예비부부(金先生 - ?小姐)커플은 “역시 듣던 대로 한국의 웨딩사진은 세련되고 콘셉트가 다양한 것 같다”며 한국의 촬영 기법에 대해 감탄했으며 “유채꽃이 만발한 제주도에서 촬영을 하면서 영화배우가 된 것 같았고 제주도의 좋은 기운을 받아 앞으로 행복한 결혼생활을 할 수 있을 것 같다”고 소감을 밝혔다. 이에 제주관광공사 관계자는 “급증하는 중국 웨딩시장에 대한 트렌드를 지속적으로 파악하고 보다 많은 예비부부들이 웨딩촬영 및 제주현지 결혼식을 위해 제주도를 찾을 수 있도록 홍보와 웨딩인프라 구축에 노력하겠다”고 밝혔다. 사진제공=아이웨딩 한편, 제주관광공사와 아이웨딩은 2012년 中 최대국영여행그룹인 CITS(중국국제여행사)와 제주 웨딩상품 계약을 체결해 ‘웨딩 관광상품’ 서비스를 구축한 바 있으며, 아이웨딩 김태욱 대표와 배우 채시라 부부가 제주관광공사 홍보대사로 활동 및 제주관광공사 주최로 아이웨딩과 함께 ‘제주 웨딩&amp;패밀리 관광설명회’를 개최하는 등 제주도를 웨딩목적지로 홍보하는데 큰 노력을 기울이고 있다. entnews@heraldcorp.com 오늘의 인기정보 오늘의 인기정보 오늘의 인기정보 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 신문윤리강령 FAMILY SITE FAMILY SITE 헤럴드경제 코리아헤럴드 K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드팝 인터넷신문등록번호:서울 아03712 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 온라인 뉴스룸 : 02-723-9623 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>&lt;인사&gt; 제주도관광협회 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 &lt;인사&gt; 제주도관광협회 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 &lt;인사&gt; 제주도관광협회 송고시간2015-04-02 15:34 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 ▲ 수도권홍보사무소장 양성우 ▲ 호남권홍보사무소장 김창효 ▲ 회원지원실장(직대) 홍선영 ▲ 해외마케팅실장(직대) 양승필 ▲ 국내마케팅실장(직대) 김의남 ▲ 정책기획실장(직대) 오문향 ▲ 사업운영실장(직대) 김보형 ▲ 회원관리팀장 문명호 ▲ 해외마케팅팀장 김종훈 ▲ 마이스T/F팀장 김종범 (제주=연합뉴스) 광고 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/04/02 15:34 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 영상 기사 재생시간 01:38 [영상] 러시아 본토-크림반도 연결 크림대교서 대규모 폭발…통행 중단 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 80대 아버지 흉기로 찔러 살해…60대 아들 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 동거녀의 13살 딸 엉덩이 깨물어 학대…50대 징역형 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 혼자 사는 70대 여성 살해하고 달아난 50대 검거 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) '90년대 강남 큰손' 조춘자 또 분양사기…징역 7년 추가 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 스타트렉 선장 "우주여행, 장례식 같았다…가장 슬픈 경험" 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 김하성, 3볼넷 3득점 1도루 '펄펄'…샌디에이고, NLDS 진출 칼 꺼낸 최하위 한화 이글스, 신정락 등 12명과 작별 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 [전국체전] 용인시 "우상혁 영입 확정"…공식 입단은 내년 1월 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 지독한 미스터리에 감성 더한 '작은아씨들' 시청률 11.1%로 종영 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 尹대통령 "북핵 위협 날로 심각…한미·한미일 안보협력 대응" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 러 우크라 전역 대규모 공습…최소 11명 사망, 주요 인프라 파괴 美, 김정은 '대화 불필요' 주장에 "여전히 외교적 접근 전념" 올해 누적 무역적자 300억달러 돌파…10월 1∼10일 수출 20.2%↓ 광고 댓글 많은 뉴스 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 댓글수 59 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 24 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>봄맞이 힐링 관광객이 추천하는 제주도펜션 '이로제주(IRO JeJu)' - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 레저·문화 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 레저·문화 &gt; 봄맞이 힐링 관광객이 추천하는 제주도펜션 '이로제주(IRO JeJu)' 파이낸셜뉴스입력 2015.04.10 17:09수정 2015.04.10 17:09 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 원본이미지 보기 제주도에서 가장 아름다운 마을 대평리에 위치, 명당 기운까지 누려 제주여행을 계획하고 있었다면 지금이 적기다. 절정을 이룬 제주 유채꽃이 만들어내는 황금빛 바다는 일생 한 번 꼭 마주해야 할 풍경 중 하나이다. 또한 따뜻한 제주의 바람과 푸르른 봄의 풍경 속에서 즐기는 봄 올레길은 1년 중 가장 아름다운 속살을 내보여 준다. 이처럼 봄의 풍요로움이 가득한 제주에서 연인이나 가족과 함께 ‘힐링’ 여행을 떠나고자 하는 여행객들이 가장 까다롭게 선택하는 것 중 하나가 제주도 서귀포펜션이다. 수많은 펜션이 있는 제주도에서도 아름다운 자연과 편리한 시설, 아늑한 휴식을 모두 누릴 수 있는 펜션을 찾기란 쉽지 않은 것이 사실이다. 그런 점에서 직접 머물고 간 숙박객들이 추천하는 서귀포펜션 ‘이로제주(IRO JeJu)’는 힐링, 서비스, 합리적인 가격까지 모두 만족스러운 제주도커플펜션, 제주도가족펜션으로 제격이라는 평가다. 특히, 풍수지리상 제주도 최고의 명당 중 하나로 손꼽히는 대평리에 위치해 있어 더욱 아늑하면서도 조용한 분위기로 인기를 끌고 있다. 중문단지와 가까워 교통이 편리할 뿐 아니라 이로제주펜션 인근에는 장선우 감독이 운영해 더욱 유명해진 ‘물고기카페’를 비롯해 인간극장을 통해 유명세를 치르고 있는 ‘거닐다카페’가 자리잡고 있어 여유로운 시간을 즐기려는 관광객들의 선호도가 더욱 높다. 여기에 마라도, 가파도, 박수기정, 군산, 한라산을 동시에 아우르는 바다전망은 제주도의 남쪽 끝 대평리에서만 즐길 수 있는 특별한 선물이다. 제주도펜션 이로제주펜션 관계자는 “설계 단계부터 고객들이 호텔 못지 않은 아름다운 외관과 서비스를 누릴 수 있도록 신경을 많이 썼다”라며 “모던하고 강인한 느낌의 노출콘크리트와 세련되고 편안한 느낌은 물론 잘 갖추어진 호텔식 침구와 시스템에어컨로 편의성을 더했다. 또한 개별 테라스에서 마련된 바비큐 시설도 편리하게 이용이 가능해 연인, 가족 단위 여행객들에게 안성맞춤이다”라고 전했다. 제주도에서 가장 아름다운 마을로 올레길 8번 종점이자 9번 시작점인 대평리에 위치한 제주도펜션 ‘이로제주(IRO JeJu)’에서 따뜻한 봄날의 추억을 만들어 보는 것은 어떨까. 서귀포펜션 이로제주펜션에 대한 자세한 내용 및 예약문의는 홈페이지( www.irojeju.com)에서 확인할 수 있다. ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 방문 관광객 필수코스 신라면세점 바로 앞,‘제주 센트럴시티 호텔’ 특별 공급 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 |경제 제주도 방문 관광객 필수코스 신라면세점 바로 앞,‘제주 센트럴시티 호텔’ 특별 공급 입력 2015-04-14 10:30업데이트 2015-04-17 09:11 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 제주시 연동은 숙박,쇼핑,문화의 중심지로 꼽힌다. 주요 쇼핑 장소인 신라면세점과 쇼핑거리인 ‘바오젠거리’가 위치하고 있어, 제주도의 명동으로 불리며 많은 관광객들이 찾고 있고, 제주도내 땅값이 가파르게 오르는 가장 비싼 곳으로 알려져 있다.제주 센트럴시티호텔은 연동의 중심지인 신라면세점 건너편에 위치하고 있어 입지여건과 운영사가 뛰어나 2013년11월 분양당시 짧은 기간에 일반 분양을 조기 마감하고 2016년1월 정식OPEN을 앞두고 있다.제주 센트럴시티 호텔이 조기 일반분양 마감을 한 이유는 바로 입지와 운영을 맡은 제주 특1급 그랜드호텔의 32년 운영 노하우와 명성 때문이다. 분양형 호텔은 입지와 운영사의 운영 경험 마케팅 능력과 네트워크를 갖추고 있느냐에 따라 호텔 가동률은 달라지고, 배당금이 큰 차이가 난다.특1급 그랜드호텔은 2014년 90.84% 높은 객실 가동률을 보이고 있으며, 제주도 매출1위 파라다이스 카지노를 운영 중이고 일본, 중국에 관광객 유치를 위해 해외 지점을 두고 있으며, 국내 모든 여행사와 제휴를 맺고 있는 걸로 알려져 있다. 특1급 그랜드호텔이 운영할 제주 센트럴시티호텔은 지하3층~지상17층, 240실 전용면적 24~53㎡ 규모다. 제주 센트럴시티호텔은 준공을 앞두고 회사보유분 한정세대를 특별 공급 중이다.제주 특1급 그랜드호텔이 운영하는 제주 센트럴시티 호텔 계약자에게는 수익금을 기본5년간 보장하고, 이후 연장 가능하다.여기에 회사 보유분 한정세대 특별 공급에 맞추어 계약하는 고객 선착순 5명에게 황금열쇠를 지급하는 이벤트도 함께 진행하고 있다.2015년 말까지 한시적으로 숙박시설 확충을 위한 특별법이 시행되어 전국적으로 수익형 호텔들이 선보이고 있다.현재 명동르와지르,속초라마다,정선라마다,평택라마다,데이즈,강정라마다,비스타케이,성산라마다,리젠트마린,노형동라마다등이분양중이거나 분양완료 하였으며, 투자자들은 그중제주센트럴시티호텔이 입지와 운영사가 최고라고 입을 모으고 있다. 모델하우스는 역삼역에 위치하고 있다.문의02) 552 - 0880온라인뉴스팀 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 30층 아파트 외벽 청소하던 30대, 밧줄 끊어져 추락사 2 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 3 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 6 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 7 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 8 “간사 간 협의하라” “체면 좀 차려라”…감사원 국감 8분만에 파행 9 신혜성, 만취해 남의 차 끌고 운전…음주측정도 거부해 체포 10 의원 보좌진이 기업 임원에 “국회로 들어오라”… 아침에 가니 한밤 나타나 “요즘 인사 잘 안오네” 최신기사 주호영 “짧은 시간 묻고 보내는 증인 없는지 점검”…‘갑질 국감’ 주의 당부 ‘푸틴 동원령’에 블라디서 러男 8명 태운 요트 동해 입항 -BBC “평생사원증이 뭐길래”…기아 노조 총파업 ‘초읽기’ 우울증·생활고에 시달린 여성, 자녀 살해 후 극단적 선택 잇따라 출소 후 성폭행 피해자 찾아가 협박한 30대 남성 구속 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 4 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 5 “수도 키이우 등 우크라 곳곳서 폭발음…사상자 발생” 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>'관광 1번지' 제주도… 제대로 알고 투자하자! : 100세시대의 동반자 브릿지경제 로그인 회원가입 검색창 닫기 전체 메뉴 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 l 비바100 피플 문화·연예 전체기사 Health(건강) Encore Career(일) Money(돈) Leisure(여가) Life(라이프) Education(교육) Welfare(복지서비스) 사설 칼럼 외부기고 비주얼 포토 카드뉴스 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 동영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 검색버튼 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 비바100 피플 문화·연예 검색창 닫기 전체기사ㅣ연금/보험 ㅣ 저축·투자 ㅣ 부동산 ㅣ 재테크 ㅣ 재무설계 ㅣ 소비 잘하는 법 현재위치 : 홈 &gt; 비바100 &gt; Money(돈) &gt; 부동산 '관광 1번지' 제주도… 제대로 알고 투자하자! 입력 2015-04-06 09:00 지난 2013년 제주 서귀포시에 게스트하우스를 오픈한 김준석(45)씨. 그는 2012년 관광차 제주도에 들렀다가 이전에 그가 이곳을 방문했을 때보다 관광객이 많이 늘어난 것을 느끼고 고민 끝에 게스트하우스를 열게 됐다.  '저녁마다 게스트하우스에서 펼쳐지는 바비큐 파티'를 내세워 마케팅을 한 결과 입소문을 타고 중국인 관광객들이 몰려왔다.  김씨는 게스트하우스 사업이 날로 번창하자 새로운 사업 아이템을 구상중이다. 물론 그 사업은 제주도에서 시작한다.  제주도가 들썩이고 있다. 최근 올레길 걷기 여행 열풍과 국제학교 설립, 중국인들의 공격적인 투자 등으로 호재가 겹치고 있다.통계청 조사에 따르면 지난 2013년 8월 기준으로 제주도의 인구는 60만명을 돌파했다. 인구 증가율이 2010년 1.6%, 2011년 1.1%, 2012년 1.6%로 인구 감소로 애먹고 있는 지방 광역시들에 비해 확연히 많은 수준이다.제주도에 중국인들이 몰려들기 시작한 것은 지난 2006년부터다. 당시 중국 여권 소지자들을 대상으로 한 무비자 입도 정책 이후 꾸준히 늘어난 중국인 관광객들은 지난 2010년 ‘부동산 투자 이민제’를 계기로 제주 부동산 시장의 큰 손으로 자리잡았다. 국토교통부에 따르면 지난해 말 기준 외국인이 보유한 제주도 토지는 1662만7000㎡로, 우리나라 전체 국토의 0.2%에 해당하는 수준이다. 이 중 중국인이 보유한 비율은 무려 50.2%에 달한다. 제주신화역사공원, 오라이동 레저용지, 상명대 제주연수원 등의 땅 주인은 모두 중국인이다.제주도의 가장 큰 매력은 ‘자연환경’이다. 이에 매료된 육지 이주자들은 게스트하우스, 커피전문점, 펜션 등의 사업을 시작하고 있다. 이전의 제주도는 섬 중심에 부자들이 많았지만, 최근에는 육지에서 이주한 부자들이 해안가에 고급 주택을 짓고 산다는 것이 이 지역 개업공인중개사들의 설명이다. 최근 제주도에서는 이른바 ‘미친’ 부동산이라는 말까지 나오면서 ‘묻지마식 투자’가 이뤄지기도 한다. 제주지역 한 개업공인중개사는 “가족이 있는 제주도민들은 농가주택을 외지인들에게 잘 팔지 않는다”면서 “그러다 보니 농가주택의 시세가 많이 올라도 공급이 따라가지 못하는 모양새”라고 말했다.제주도에 투자할 계획이라면 몇 가지 알아둬야 할 사항이 있다.먼저 제주도에 투자가 가능한 지역은 섬 전체 면적의 약 10%에 불과하다. 제주특별자치도의 면적은 1820㎦로 작은 면적은 아니지만, 개발이 불가능한 △경관보존지구 △생태보존지구 △지하수보전지구 △유적지 등이 전체 면적의 70%에 달해 투자할 지역을 찾는 것이 쉽지 않다.전문가들은 또 도시계획구역과 제주 서남권 위주로 투자처를 모색하는 것이 좋다고 설명한다. 양철승 부동산가치투자연구소 소장은 “차후 인구유입이 예상되는 도심권 내 주거지역과 그 인근지역, 개발 예정 구역, 영어교육도시 등을 중심으로 눈여겨봐야 한다”고 말했다.제주도는 ‘섬’이라는 특수성을 갖고 있기 때문에 공항이나 항구 등의 기반시설의 변화를 주목해야 한다. 양철승 소장은 “공항의 비행기 운항 횟수, 항만의 여객선 운항 횟수의 변화를 보면 이 지역에 찾아오는 관광객 수의 수준을 대략적으로 파악할 수 있다”면서 “호텔의 수익성이 좋지만 아무리 많이 지어도 이에 따른 수요가 뒷받침되지 않는다면 수익이 날 수 없다”고 지적했다.권성중 기자 goodmatter@viva100.com 기자의 다른기사보기 &gt; 이 기사에 댓글달기 댓글 접기 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 온라인 핫클릭 ·누가 뭐래도 갓병헌! "감독님 그때 저에게 왜 그러셨어요?"·8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다"·‘그랜드 엑스페디션’ 정인석 프로듀서 “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요!”·"자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과"·은퇴 초반 철칙… 노후자금 수익률 높이고 인출은 줄여라·직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑ 스포츠 월드 ·KLPGA 투어 1인자 박민지, 여자 골프 세계 랭킹 16위·김주형, PGA 투어 슈라이너스 칠드런스 오픈 ‘노보기’ 우승…두 달 만에 통산 2승·김세영, LPGA 투어 메디힐 챔피언십 7위·‘1인자’ 박민지, KLPGA 투어 하이트진로 챔피언십서 연장전 끝에 우승·김영수, 코리안 투어 제네시스 챔피언십서 역전 우승…107번째 출전 만에 첫 승·김세영·강혜지, LPGA 메디힐 챔피언십 3라운드 공동 13위…‘톱 10’에 한국 선수 들지 못해 김규리, 완벽 옆태 아이즈원 출신 이채연, ‘허쉬 러쉬’ 첫 콘셉트 포토 공개…12일 솔로 데뷔 체리블렛 채린, ‘슈룹’ 출연 확정…김혜수 과거 시절 연기 정시아, ‘이츠 마이 라이프’ MC 발탁…“일상 속 정보 전달” YG엔터, 제니 사진 유출 관련 ‘법적 대응’…“경찰에 수사 의뢰” 기획시리즈 ESG 경영이 미래다 “순환경제가 탄소중립 현실적 해결 방안…신기술로 새시장 개척해야” KT&amp;G, 지구온도 낮추는 녹색경영… 지속가능한 생태계 키운다 이희연 KT&amp;G ESG기획팀장 "객관적 성과 측정… 이해관계자 소통 강화할 것" 人더컬처 8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다" 장동윤이 영화 '늑대사냥'에 미친 이유! 염정아에게 춤과 노래란? 맘 with 베이비 "자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과" 광명시의회 안성환 의장 “경력단절 없도록… 육아휴직 대체인력 지원 늘려야” "밤 오줌 못 가리는 아이, 실수해도 야단치지 마세요" 직장인 2막 직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑ 실패땐 복직 보장… 창업, 걱정 말고 도전하세요 농작물 재해 손해평가… 2차 합격률 20%대 '좁은문' 스타트업 "더 빠르고 정확하게"… 심정지 환자 소생률 높인다 컴투스 창업자의 새로운 도전… "해긴은 모두가 행복한 게임회사를 꿈꿉니다" "인테리어는 곧 공간에 대한 이해… 건축주 니즈 최선" 열정으로 사는 사람들 윈골드 류홍열·김탁종 대표 “金거래시장 틈새 발견… 변호사 둘이 일냈죠” "건설일용직도 모바일 매칭… 새벽 줄서기 없앴죠" 창업 생존율 확대…실습·실무 '창업교육' 나선 넥스트랩 김진태 대표 테크리포트 현존 최고 자물쇠 채워라!… 국내 이통사 '양자암호통신' 개발 경쟁 10분 이상 버텨라! 불에 강한 단열재 생산 불붙었다 K수소 무한 확장… 블루수소 만들고 UAM 띄운다 안종배 회장의 인공지능과 메타버스 미래세상 "세계가 주목하는 메타버스 리더, 누구나 될 수 있죠" 우리는 메타버스 시대에 살고 있다 메타버스, 미래 핵심기술 선도한다 스마트 라이프 ‘뉴 스페이스’ 시대 성큼… 제약·바이오도 우주 시장 ‘눈독’ "학습자 누구나 시험 합격때 수강료 100% 환급해드려요" "수하물 탑재 완료됐어요"…AI 챗봇이 다 알려드려요 많이본뉴스 최신뉴스 이시각 주요뉴스 코로나19 신규 확진자 1만5476명…사망자 91일만에 최소 코스피, 장 초반 2%대 하락…2200선 붕괴 [대통령의 한마디] "담대한 구상, 비핵화 이끌어 내기에 유효 할 것" 글로벌 경제위기에 국민연금 올해 상반기 적자 77조원… “투자다변화 전략 필요” 한경연 “법인세율 3.3%p 인하하면 GDP 10년간 연평균 1.4%↑” 3분기 단기사채 자금조달 250.9조…전년比 22.2%↓ 창립 70주년 맞은 한화…김승연 회장 "지속적 혁신" 주문 올해 아울렛서 화재 세 차례…노동부, 대규모 유통업체 불시점검 [오늘의 1면] 아파트 매매가·전세가 급락세··· 부동산 지표 '사상 최악' 러시아 미사일공습에 삼성 입주건물 피해…삼성 “직접 피격 아냐” TODAY TOPIC 1 2 공효진·케빈오, 12일 미국 뉴욕서 비공개 결혼식 “변명의 여지 없어” 신혜성, 음주운전 사과…차량 절도는 아냐 반환점 돈 영화제, 폐막까지 D-3… 올해 부국제는 어땠나? 선우은숙, 4세 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” '죽음 권하는 사회', 영화 '플랜75'가 주는 리얼함 8년만에 BIFF 찾은 진가신 "영화감독이 아닌 삶은 상상할 수 없다" “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요” 누가 뭐래도 갓병헌! "감독님 그때 저에게 왜 그러셨어요?" 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 영상 영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT·산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 회사소개 | 조직도 | 찾아오시는길 | 회원약관 | 개인정보취급방침 | 이메일무단수집거부 | 신문구독신청 | 저작권 규약 | 청소년보호정책 | 원격지원 | 고충처리인 | 윤리강령 및 기자준칙 서울특별시 종로구 새문안로5길 13, 9층(당주동, 변호사회관) / 인터넷신문등록번호 : 서울,아03028 / 등록일자 : 2014년 3월 3일 / 제호 : 브릿지경제신문 / 발행인·편집인 : 김현수 / 청소년보호책임자 : 조진래 / TEL : 02-2070-0200 l FAX : 0303)0952-0200 / 한국신문협회, 한국온라인신문협회 회원사 / 매체사 자체 윤리 강령, 규제 제도에 의해 윤리강령을 준수합니다. / 인터넷신문위원회 자율심의 준수서약사 Copyright by Bridgenews Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>[인사] 제주도관광협회 인사예고 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 11:41 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 제주도교육청-대학 간 교육 협력 제도화 조례 제정 ‘시동’ JDC, 제주도-첨단과기단지 투자기업 '파트너스데이' 제주도 중학교 과밀학급 29.8%...전국 2위 ‘콩나물 교실’ 여전 제주도, 민간일자리 창출 소상공인에 사회보험료 전액 지원 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 [인사] 제주도관광협회 인사예고 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 [인사] 제주도관광협회 인사예고 기자명 문준영 기자					(moonsoyo@jejusori.net) 입력 2015.04.02 13:52 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주특별자치도관광협회(회장 김영진)는 6일자로 13명에 대한 전보 인사를 단행했다. 이번 인사는 지난 31일 이사회에서 기존 1국(사무국) 체제였던 제주도관광협회를 2국(회원지원국, 마케팅국) 체제로 개편을 결정한 데 따른 것이다.▲ 전보발령 명단(13명) 번호 성 명 발 령 사 항 현 직 1 양성우 수도권홍보사무소 소장 사업운영실 실장 2 김창효 호남권홍보사무소 소장 회원지원실장(직) 3 홍선영 회원지원실장(직) 정책기획실장(직) 4 양승필 해외마케팅실장(직) 마케팅실장(직) 5 김의남 국내마케팅실장(직) 국내마케팅팀장 6 오문향 정책기획실장(직) 정책팀장(겸) 정책팀장 7 김보형 사업운영실장(직) 시티투어팀장(겸) 호남권홍보사무소장 8 문명호 회원관리팀장 수도권홍보사무소장(직) 9 김종훈 해외마케팅팀장 마이스T/F팀장 10 김종범 마이스T/F팀장(직) 사업운영대리(겸) 회원지원팀 대리 11 강현부 회원지원팀 주임 회원관리팀 주임 12 김석영 정책팀 담당 종합관광안내소 담당 13 한송이 회원지원팀 담당 해외마케팅팀 담당 문준영 기자 moonsoyo@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 의료관광사업 전면 재검토 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 의료관광사업 전면 재검토 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 의료관광사업 전면 재검토 기자명 김경필 기자 입력 2015.04.02 17:52 수정 2015.04.02 21:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 계획수립전 전문가 자문국비사업 중단 영향으로환자 유치 차질 '불가피' 속보=민선6기 원희룡 제주도정의 역량 부족으로 4년 연속 선정됐던 보건복지부 지역 해외환자 유치 선도의료기술 육성사업 공모에서 탈락했다는 지적(본보 4월1·2일자 1면)이 제기되자 제주도가 의료관광사업 전면 재검토에 착수했다.도는 2일 지역 해외환자 유치 선도의료기술 육성사업 공모 탈락에 따른 보도자료를 내고 의료관광사업을 전면 재검토하겠다는 입장을 밝혔다.특히 도가 도내 15개 의료기관과 사전 협의과정도 없이 일방적으로 컨소시엄을 구성하고 사업계획서를 부실 작성했다는 본보 지적과 관련해서도 개선방안을 제시했다.도는 앞으로 국비 지원사업인 지역 해외환자 유치 선도의료기술 육성사업 공모에 앞서 의료관광지원협의회 등의 자문을 구한 뒤 전반적인 사업계획을 검토, 응모여부를 결정키로 했다.또 의료관광 클러스터 구축 등 새로운 성장기반도 함께 마련해나가기로 했다.하지만 복지부 공모사업 탈락으로 지난 2011년부터 추진된 해외환자 유치 선도의료기술 육성사업이 사실상 중단, 적잖은 타격이 예상되고 있다.지난 4년간 제주도 및 해외환자 유치업체 등과 컨소시엄을 구성해 선도의료기술 육성사업을 추진해온 제주한라병원은 2012년 1107명, 2013년 1617명, 2014년 2083명의 해외환자를 유치한 것으로 파악됐다.제주한라병원은 올해도 중국과 몽골 등 주변국을 중심으로 해외환자 유치에 나설 계획이었으나 제주도가 사업계획을 변경한데다, 복지부 공모까지 탈락하면서 계획에 차질을 빚게 됐다.제주도가 의료관광사업 전면 재검토에 나선다는 입장이지만 해외환자 유치 차질로 의료관광 위축이 불가피할 것으로 관측되고 있다. 김경필 기자 kkp2032@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[인사] 제주도관광협회 실장급 등 전보인사 단행 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [인사] 제주도관광협회 실장급 등 전보인사 단행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 [인사] 제주도관광협회 실장급 등 전보인사 단행 오미란 headlinejeju@headlinejeju.co.kr 승인 2015.04.02 14:02 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회는 4월 6일자로 직원 13명에 대한 인사를 단행했다. 아울러 제주관광협회는 제주도내 영세한 관광사업체들의 국내.외 마케팅 업무지원을 강화하기 위해 기존 1국 체제였던 사무본부 직제를 마케팅국을 신설하는 2국체제로 전환했다. 다음은 인사발령 사항. △수도권홍보사무소 소장 양성우 △호남권홍보사무소 소장 김창효 △회원지원실장 직무대리 홍선영 △해외마케팅실장 직무대리 양승필 △국내마케팅실장 직무대리 김의남 △정책기획실장 직무대리 오문향 △사업운영실장 직무대리 김보형 △회원관리팀장 문명호 △해외마케팅팀장 김종훈 △마이스T/F팀장 직무대리 김종범 △회원지원팀 주임 강현부 △정책팀 담당 김석영 △회원지원팀 담당 한송이 .&lt;헤드라인제주&gt; &lt;오미란 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[인사] 제주도관광협회 &lt; 인사 &lt; 사람들 &lt; 기사본문 - 중부일보 - 경기·인천의 든든한 친구 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 경기·인천 뉴스의 중심 로그인 회원가입 2022-10-11 09:06 (화) 지면서비스 전체메뉴 버튼 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 지면보기 모바일보기 뉴스종합 정치 경제 사회 문화 스포츠 국제 지역 경기 사람들 인천 오피니언 라이프 기획취재 포토 검색하기 기사검색 검색 Trend news 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 6 [현장 24시] "일조·조망권 침해" VS "적법한 재산권 행사"…북수원패션아울렛 재건축 갈등 7 "8호선 의정부연장 조속히 해야"…김민철, 국정감사서 교통인프라 개선 촉구 8 [중부일보 사장배 유소년축구대회] 6학년 리그 우승 김지원 인천유나이티드 미추홀지부 감독 "아이들이 축구에 대한 흥미 잃지 않도록 노력" 9 공사비 오르는데 미분양 급증…경기도 건설업계 '죽을 맛' 10 '블랙, 세상의 빛을 담다'…의정부 BMF 21~22일 시청 앞 광장서 개최 ISSUE PICK 지역개발 우리동네 집값·땅값은 TV중부 뉴스를 본다 교육이 미래다 교육의 현장속으로 팩트인사이드 오직 사실! 다문화뉴스 우리 곁에 사람들 사람들 인사 알림 부고 새얼굴 더보기 본문영역 서울 7℃  흐림 미세먼지 경기 8℃  흐림 미세먼지 인천 9℃  맑음 미세먼지 이전 기사보기 다음 기사보기 [인사] 제주도관광협회 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사람들 인사 [인사] 제주도관광협회 기자명 입력 2015.04.02 16:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 네이버밴드(으)로 기사보내기 닫기 [인사] 제주도관광협회 ▲ 수도권홍보사무소장 양성우 ▲ 호남권홍보사무소장 김창효 ▲ 회원지원실장(직대) 홍선영 ▲ 해외마케팅실장(직대) 양승필 ▲ 국내마케팅실장(직대) 김의남 ▲ 정책기획실장(직대) 오문향 ▲ 사업운영실장(직대) 김보형 ▲ 회원관리팀장 문명호 ▲ 해외마케팅팀장 김종훈 ▲ 마이스T/F팀장 김종범 페이스북 지면신문보기 저작권자 © 중부일보 - 경기·인천의 든든한 친구 무단전재 및 재배포 금지 로그인하면 내지역 뉴스와 원본 지면을 보실 수 있습니다. 회원가입 로그인 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 기사 1 오산시의회, 제272회 제1차 정례회 개회 2 1기 신도시 연합회 "안전진단 면제·임기내 착공 약속하라" 3 제1회 중부일보 사장배 유소년 축구대회 4 검찰, 이재명 관련 의혹 전방위 수사…소환 조사 임박했나 5 [국감인물] 국민의힘 국토교통위 김선교 의원 "이재명·은수미 배임행위" 저격 PREMIUM로컬프리미엄 고양시 인천동구의회 인천동구 과천시 광명시 안양시 파주시 화성시 안성시 양평군 오산시 의정부시 여주시 안산시 이천시 의왕시 군포시 평택시 구리시 용인시 광주시 눈여겨 볼만한 개발정보 GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 인천시, 재개발사업 희망지 공모…10개소 이내 구역지정 인천 2호선 김포 감정동·걸포북변·시네폴리스 3개역 신설 검토 오늘의 헤드라인 고양 탄현동·인천 부평구 등 전세보증사고 속출 올해 들어 고양 탄현동·인천 부평구·서울 화곡동 등지에서 집주인이 세입자의 전세보증금을 돌려주지 못한 전세 보증 사고가 집중됐던 것으로 나타났다.특히 고양 탄현에서 발생한 전세 보... GTX-B ‘인천대~마석’ 민자구간, 2024년 착공 "실효성 없는 학생 자가진단 앱 언제까지 해야 하나" 불만 폭증 부담스런 점심시간…김밥 1줄 3천원 시대 로컬 인사이드 경기도 유물여행 한겹 한겹 덧칠 걷어내니 호성공신의 위엄이 돌아왔다 우리동네 책방여행 시 창작회·음악회 함께 즐기며 '생태주의 공유'…용인 '반달서림' 인문기행-경기도의 전통사찰 꺽정불 찾아 수능 대박 기원해볼까…안성 칠장사 하단영역 경기·인천의 든든한 친구 뉴스 지역종합 오피니언 라이프 기획취재 포토 TV중부 매체정보 경기도 수원시 팔달구 권선로 733 (인계동) 중부일보 문의전화 : 031-230-2114 팩스 : 031-233-3010~1 인천본사 : 인천광역시 남동구 구월남로 148 타워플러스 603호 TEL : 032) 437-0081 FAX : 032) 437-0085 중부일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 중부일보 - 경기·인천의 든든한 친구. All rights reserved. mail to webmaster@joongboo.com 위로 전체메뉴 경기 가평군 고양시 과천시 광명시 광주시 구리시 군포시 김포시 남양주시 동두천시 부천시 성남시 수원시 시흥시 안산시 안성시 안양시 양주시 양평군 여주시 연천군 오산시 용인시 의왕시 의정부시 이천시 파주시 평택시 포천시 하남시 화성시 지역종합 자치의정 북부종합 인천 정치 의정 경제 사회 선거 계양구 미추홀구 남동구 동구 부평구 서구 연수구 중구 강화군 옹진군 인천종합 사람들 사람들 인사 알림 부고 새얼굴 정치 지방행정 지방의정 선거 대통령실 행정·자치 국회·정당 외교·국방·북한 정치일반 20대 대선 경제 경제종합 건설.부동산 금융.재태크.증권 소비자.유통 일자리&amp;창업 IT.과학 자동차 중소기업 사회 사건.사고 교육 법원·검찰·경찰 노동·복지 생활·환경 날씨정보 사회종합 문화 문화종합 공연.전시 신간 오늘의운세 별자리운세 스포츠 야구 축구 농구 배구 골프 종목별경기 스포츠일반 6·1 지방선거 경기도 인천 포토 포토뉴스 만평 꼬투리 그래픽뉴스 테마화보 카드뉴스 다문화뉴스 English(영어) 中国语(Chinese) Tiếng Việt(Vietnamese) Other Languages 다문화人Story 기획취재 라이프 레저·여행 푸드스토리 건강·의학 오피니언 눈여겨 볼만한 개발정보 TV중부 경기도맛집 연중기획 '지방분권' 시대 끝까지 간다 팩트인사이드 지방선거 누가 뛰나 전체메뉴닫기</t>
   </si>
   <si>
     <t>인사)제주도관광협회 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 피플 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 피플 &gt; 인사)제주도관광협회 파이낸셜뉴스입력 2015.04.02 15:38수정 2015.04.02 15:38 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 ◆제주도관광협회 △수도권홍보사무소장 양성우 △호남권홍보사무소장 김창효 △회원지원실장(직대) 홍선영 △해외마케팅실장(직대) 양승필 △국내마케팅실장(직대) 김의남 △정책기획실장(직대) 오문향 △사업운영실장(직대) 김보형 △회원관리팀장 문명호 △해외마케팅팀장 김종훈 △마이스T/F팀장 김종범 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
   </si>
   <si>
-    <t>[인사] 제주도관광협회 본문 바로가기 NAVER 뉴스 연예 스포츠 날씨 프리미엄 검색 언론사별 정치 경제 사회 생활/문화 IT/과학 세계 랭킹 신문보기 오피니언 TV 팩트체크 구독 서울경제 언론사 구독되었습니다. 메인 뉴스판에서 주요뉴스를 볼 수 있습니다. 보러가기 서울경제 언론사 구독 해지되었습니다. [인사] 제주도관광협회 입력2015.04.02. 오후 3:38 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 △ 수도권홍보사무소장 양성우 △ 호남권홍보사무소장 김창효 △ 회원지원실장(직대) 홍선영 △ 해외마케팅실장(직대) 양승필 △ 국내마케팅실장(직대) 김의남 △ 정책기획실장(직대) 오문향 △ 사업운영실장(직대) 김보형 △ 회원관리팀장 문명호 △ 해외마케팅팀장 김종훈 △ 마이스T/F팀장 김종범/디지털미디어부 [ⓒ 한국미디어네트워크, 무단 전재 및 재배포 금지] ?? Copyright ⓒ 서울경제. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 확 달라진 남편, 아내와 잠자리서… 깜짝 '입시비리 파문' 영훈국제중 급기야… 한국 특전사 때문에 美 특수부대가… 충격행각 들통난 예원 해명에 이태임 결국 [단독] 한국 3년후엔… 최악 사태 벌어지나 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 서울경제 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 서울경제 헤드라인 [속보]이재명 "尹정부, 독재정권처럼 공포정치…정치탄압 노골화" 이재명 더불어민주당 대표가 4일 문재인 전 대통령을 향한 감사원의 조사와 관련해 “국민을 지키라는 총칼로 경쟁자를 짓밟았던 독재정권처럼 정의를 지키라는 사정권력으로 공포정치에 나선 것”이라고 비판했다. 이 대표는 4 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" '서해 공무원 피격 사건' 관련, 감사원의 서면 조사 요구에 대해 문재인 전 대통령이 "대단히 무례한 짓"이라고 불쾌감을 드러낸 것을 두고 권성동 국민의힘 의원이 "목함지뢰로 다리가 잘린 군인에게 '짜장면 먹고 싶냐 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 휴대전화를 충전하던 중 보조 배터리가 갑자기 폭발해 소비자가 심한 화상을 입었지만, 배터리 제조업체의 사후 대처에 논란이 일고 있다. 연합뉴스 보도에 따르면 최근 경기도 이천시에 거주 중인 30대 A씨와 아내는 최근 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림을 전시했다. 3일 한국만화영상진흥원에 따르면 이날 폐막한 제23회 부천국제만화축제 전시장에 '윤 "이재민 도와야겠어" 생방 중 카메라 놓고 뛰어간 '영웅' 초강력 허리케인 '이안'이 미국을 강타하면서 플로리다에서만 100여명에 가까운 사망자가 발생하는 등 막대한 피해가 발생한 가운데 생방송으로 허리케인 상황을 전하던 방송사 카메라맨이 카메라를 내려놓고 이재민을 돕는 모 이전 뉴스들 보기 3 다음 뉴스들 보기 서울경제가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 서울경제 헤드라인 더보기 [속보]이재명 "尹정부, 독재정권처럼 공포정치…정치탄압 노골화" 6분전 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" 54분전 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 12시간전 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 21시간전 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 4시간전 "이재민 도와야겠어" 생방 중 카메라 놓고 뛰어간 '영웅' 34분전 서울경제 랭킹 뉴스 오전 8시~9시까지 집계한 결과입니다. 오전 6시~9시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 4시간전 2 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 21시간전 3 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 12시간전 4 [속보] 네이버, 2조 3400억에 美 중고패션 플랫폼 인수 1시간전 5 DJ 고향에 '윤석열 대교' 생기나…총 2800억·예타면제 추진 2시간전 1 조종석엔 김건희, 칼 든 검사들…고교생이 그린 '윤석열차' 4시간전 2 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 21시간전 3 DJ 고향에 '윤석열 대교' 생기나…총 2800억·예타면제 추진 2시간전 4 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 12시간전 5 [속보] 합참 "북한, 동쪽 방향으로 미상 탄도미사일 발사" 2시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 “별 것 아냐”...평범한 건강 적신호 5 우리 몸에 이상이 생기면 다양한 모습으로 신체에 반응이 나타난다. 대표적으로 통증은 몸에 이상이 생겼다는 신호다. 몸에 어떤 변화가 생겼을 때는 건강에 빨간불이 켜진 것이 아닌지 주의를 기울여야 한다. 미국 ABC방 킴 카다시안, ‘SNS 1건’ 때문에…벌금만 18억원 냈다 ‘이더리움맥스’ 홍보 대가 미고지 美SEC 합의금 18억원 미국의 모델 겸 패션사업가인 킴 카다시안이 자신의 소셜네트워크서비스(SNS)에서 특정 가상화폐를 불법 광고했다. 이에 카다시안은 126만 달러(약 18억19 퇴임 뒤에도 '내로남불'?…박근혜 털었던 문재인, 자신 향한 서면조사엔 "무례한 짓" 감사원이 '서해 공무원 피살 사건'과 관련해 문재인 전 대통령을 서면조사하려 한 것으로 알려졌다. 문 전 대통령은 질의서 수령을 거부함과 동시에 불쾌감을 피력했으며, 더불어민주당도 "정치보복"이라며 일제히 반발하고 "엔저로 더 싼 일본 갑니다" 예약 폭증…'배짱장사' 제주도는 발동동 일본, 대만, 홍콩까지 오픈되고 있는데, 제주도가 배짱장사를 계속 할 수 있을지...렌트비, 숙박비, 식당 거품이 좀 빠지길 바라봅니다." "결혼기념길에 제주도 여행을 고민해오다가 11월초 오사카 비행기와 호텔을 BTS 사는 '나인원한남' 전셋값도 2년째 1위…"전용 244㎡ 80억" 올해 전국에서 전세보증금(실거래가 신고기준)이 가장 높은 아파트는 용산구 한남동 '나인원한남'인 것으로 나타났다. 4일 국회 국토교통위원회 박상혁 더불어민주당 의원실이 국토교통부로부터 제출받은 '2020년 이후 연도 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 재생하기 재생시간03:39 발로 차고 던지고‥어느 회장님의 '갑질' ◀ 앵커 ▶ 한 중견기업 회장이 직원들에게 폭언과 폭력을 서슴지 않고, 비서에게 가족 일은 물론 내연녀 심부름까지 수시로 시킨다는 제보가 들어왔습니다. 구나연 기자입니다. ◀ 리포트 ▶ 계열사 6곳과 주유소 14곳, 조종석엔 김건희 여사…고교생이 그린 ‘윤석열차’ 문화체육관광부·경기도·부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림을 전시했던 사실이 뒤늦게 알려졌다. 4일 한국만화영상진흥원에 따르면 전날 폐막한 제23회 부천국제만 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 쌍방울그룹이 북한 광물자원 개발의 대가로 북측에 1천만달러 상당 내의를 제공하려 한 정황이 국가정보원 내부 문건으로 파악됐다. 쌍방울의 대북사업 관련 뇌물 혐의로 이화영 전 부지사가 구속된 가운데 북측과 쌍방울 사이 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 재생하기 재생시간01:31 중부 이어 남부 전선 돌파..."러시아 방어 능력 곧 상실" 우크라이나군이 중부에 이어 남부 지역의 요충지 여러 곳을 탈환했습니다. 러시아는 점령지 강제 병합에 성공했지만, 우크라이나군의 전방위 압박에 마주치게 됐습니다. 류재복 기자의 보도입니다. [기자] 우크라이나 국기를 손가락 꺾으며 '뚝' 소리 내는 습관… 당장 멈추세요 습관적으로 손가락을 꺾으며 '뚝' 하는 소리를 내거나, 손가락을 바깥쪽으로 잡아당기는 사람들이 있다. 하지만 이런 행위는 손가락 관절에 염증을 일으킬 수 있어 주의해야 한다. 관절을 꺾거나 비틀 때 소리가 나는 현상 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 윤석열 대통령의 ‘비속어 파문’ 여파 탓에 정부와 여당 지지율이 동반 하락하는 가운데 국민의힘이 격랑의 한 주를 맞았다. ‘정진석 비상대책위원회’의 존폐와 이준석 전 대표 추가 징계가 한꺼번에 결정될 가능성이 적지 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 재생하기 재생시간02:20 우크라, 남부 전선도 돌파…핵 위기 커지나 우크라이나 소식입니다. 동부 요충지를 탈환한 우크라이나군이 남부에서도 주목할만한 전과를 올리고 있습니다. 그런데 우크라이나군이 영토 탈환에 성공할수록 러시아의 핵무기 사용 가능성이 커질 수 있다는 우려가 나옵니다. 이스라엘 유적지서 동로마시대 금화 무더기 발굴 각 무게 170g 정도의 금화 출토 7세기쯤 제작된 것으로 추정 이스라엘의 한 자연보호구역 내 유적지에서 동로마제국 시대의 금화가 무더기로 발굴돼 학계의 관심을 받고 있다. 3일(현지시간) 외신에 따르면 이스라엘 문 "귀신같은 꿀빨러" 이준석 팬도 혀 내두른 이재명 심야트윗 “잘 챙겨 보겠습니다. 망 사용료 법 문제점이 있어 보입니다.” 지난 2일 자정 직전에 이재명 더불어민주당 대표는 자신의 트위터에 이같은 글을 적었다. ‘망 사용료’ 지불을 의무화하는 법안의 문제점을 지적한 트위터 편의점서 1억3천만원 결제…도대체 뭘 샀길래 CU 10년 효자상품 분석 참이슬 소주 누적 3억개 팔려 삼각김밥은 '참치마요'가 1위 점포수·매출액 2배로 늘어 편의점서 1억 넘게 쓴 고객도 편의점 CU에서 지난 10년 동안 가장 많이 팔린 상품은 무엇일까. 편 부부가 아니었다…'신라의 명품 귀고리'는 두 여성의 합장분에서 나왔다[이기환의 흔적의 역사] ‘신라 최고의 명품 귀고리가 출토된 고분은 부부총이 아니었다.’ 9월 29~30일 국립중앙박물관 소강당에서 ‘국립박물관 소장 일제강점기 자료의 공개와 활용’ 학술대회가 열렸다. 우선 일제강점기 조선총독부 박물관이 한 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN 文 “감사원 무례한 짓” 與 “前대통령 성역 없어” 문재인 전 대통령이 서해 공무원 피살 사건과 관련한 감사원의 서면조사 요구에 “대단히 무례한 짓”이라고 했다. 더불어민주당도 “문 전 대통령을 정치보복의 올가미에 가두려는 윤석열 정권의 음모”라고 거세게 비판하며 감 “2만원→4천원” 넷플릭스, 일주일 ‘몰아보기 싼 요금’ 부활 어때요? “넷플릭스에 새로 들어온 드라마 딱 1개만 ‘정주행’하고 싶은데…한달 요금 내자니 아깝고, 계정 ‘계모임’ 찾자니 귀찮네요. 좀 싸게 일주일만 보게 해주면 안되나요?” 넷플릭스, 웨이브, 티빙, 쿠팡플레이, 디즈니플 벤츠·마세라티 타면서 임대주택 살았다…부적격 입주자 5년간 3만6000명 한국토지주택공사(LH)가 모집한 건설임대주택(공공·국민·영구임대, 장기전세, 행복주택) 입주자 가운데 입주 자격을 충족하지 않는 부적격 입주자가 최근 5년간 3만6000명을 넘어선 것으로 나타났다. 3일 국회 국토교 인플레법 우려 현실됐다…현대차그룹 美 전기차 판매 크게 감소(종합) 9월 전기차 판매대수 전월대비 현대차 14%, 기아 22% 각각 줄어 9월 전체 車판매는 전년 동월 대비 현대차 11%, 기아 6%씩 증가 김태종 특파원 = 한국산 전기차에 대한 보조금 지급 차별 논란으로 우려를 낳 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 '월급 600만원' 싱글 직장인, 알고보니 '돈' 이렇게 벌었다 대기업에서 소프트웨어 개발 업무를 하는 35세 김모씨는 서울 사당동 85㎡ 아파트에서 혼자 살고 있다. 월급이 600만원을 웃돌지만 절반에 가까운 300만원은 적금과 펀드 등에 넣는다. 주말엔 자전거로 배달라이더 일 이언주, 삭발사진 올리며 쓴소리 “‘공정과 상식’ 외치며 文정권 비판해 왔지만…” 이언주 전 의원, 현재 정부여당의 논란 및 갈등 상황 나열하며 비판 수위 끌어올려 “수사 등 사법적 정의를 실현하는 과정이나 잣대가 권력 유무에 따라 달라져” “주권자인 국민, 선거만 끝나면 수임자에게 주권 빼앗기고 충전 중 배터리 폭발 '화재'…잠자던 가족 중화상 입었는데 휴대전화를 충전하던 중 보조 배터리가 갑자기 폭발해 소비자가 심한 화상을 입었지만, 배터리 제조업체의 사후 대처에 논란이 일고 있다. 연합뉴스 보도에 따르면 최근 경기도 이천시에 거주 중인 30대 A씨와 아내는 최근 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 오늘의 시사상식 문제 #344 매경 취업스쿨 유료 지식사업가의 글쓰기에 스토리를 우겨넣는 방법(반드시 그래야만 한다..) 신PD 지식사업연구소 [오늘부터 1인기업] 북튜버 책먹는여자의 책추천 책먹는여자 유료 [인사이트] "청약가점 낮다면…진입 장벽 낮은 비규제지역 노려볼까" 유목민의 시그널리포트 유료 86번가 데일리 (2022년 9월 28일) - 영란은행 한시적 무제한 자산매입 결정으로 증시 상승 86번가 유료 아워레가시를 한국에 파워상륙 매장에서 구매하기 패션&amp;리빙매거진 워럽 유료 86번가 데일리 (2022년 10월 3일) - 영국의 부자 감세 철회 + ISM 제조업 PMI 부진 =&gt; 금리 하락, 주식 상승 86번가 유료 [D] 무기상식 깨고 개발 성공한 ‘괴물 미사일’ 현무-5 프리미엄 조선 유료 ‘한국 스포츠의 거목’ 장기영의 면모: 왕초, 25시의 사나이, 타이거 장 스포츠LAB 유료 Q. 지금 집을 구한다면 전세와 매수 어느 쪽이 나을까요? BOODING+ 유료 [경제뉴스 읽기 06편] 삼성과 ARM, 한화와 대우조선, 그리고 PNG 대신 LNG #반도체 #에너지 리치플랫폼 &lt;#0&gt; 그래서 '오징어 게임'이 IP예요? 소요의 IP WORLD 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 서울경제 예 아니오</t>
-  </si>
-  <si>
-    <t>참좋은여행, 제주도 관광지 입장권 증정 이벤트 진행 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 참좋은여행, 제주도 관광지 입장권 증정 이벤트 진행 글로벌모터즈 온타임즈 PDF지면보기 English 中文 산업 facebook twitter youtube 검색 메뉴 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 공유 0 참좋은여행, 제주도 관광지 입장권 증정 이벤트 진행 강준호 기자 입력2015-04-14 16:09 [글로벌이코노믹 강준호 기자] 14일 참좋은여행은 5~6월 출발고객 대상 제주도 관광지 입장권 2종 증정 이벤트를 진행한다고 밝혔다. 5월 7일부터 6월 30일까지 제주도 에어카텔 자유여행 상품을 이용해 출발하는 고객에게 제주도 유명 관광지 입장권 2종 세트 6가지 중 1가지를 제공하며, 예약 시에 고객이 고를 수 있다. 단 2대 가족이 함께 출발할 경우에 지급한다. 증정품은 우도랜드 우도도항선 왕복권과 제주 민속촌, 메이즈랜드, 미니랜드 입장권 조합 3가지와 조은승마 기본코스 이용권과 유리 박물관, 소인국 테마파크, 세계 자동차 박물관 입장권 조합 3가지 총 6가지다. 우도도항선 왕복권을 포함한 티켓 묶음은 1만3000원 상당, 조은승마 이용권을 포함한 묶음은 2만1000원 상당이다. 참좋은여행 관계자는 “제주도가 가장 사랑 받는 시기 5~6월을 맞아 가족과 함께 즐거운 추억을 만들 수 있게 체험 입장권을 제공하는 이벤트를 기획하게 됐다”며 “앞으로도 고객에 대한 감사의 의미로 다양한 사은 행사를 진행할 계획”이라고 말했다.강준호 기자 invincible@ 캄보디아 뉴스 기본정보 무역 투자 비즈니스 여행 캄보디아 신투자법 발효. 투자 혜택 확대 2021.12.02 2021년 캄보디아 투자진출 동향 2021.12.02 캄보디아 망고 생산현황과 전망 2021.10.27 미국상공회의소(AmCham Cambodia) “캄보디아 농업(무역/투자)” 웨비나 참관기 2021.10.13 2021년 캄보디아 코로나 현황 및 경제회복 전망 2021.07.30 헤드라인 뉴스 [뉴욕증시] 국채 수익률 하락 나스닥 2.27% 급등 [뉴욕 e종목] 테슬라 투매 나왔나…주가 8.6% 폭락 "美 중간 선거 후 한국산 전기차 차별 해소 가능성" 글로벌비즈 러시아, 이탈리아에 러시아산 천연가스 3일부터 공급중단 日 미쓰비시중공업, 보다 안전한 원자로 개발 착수 일본제철, 아르셀로미탈과 손잡고 인도 철강 생산 확대에 74억달러 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 폴란드, SNT모티브 K4 고속유탄기관총 구매 공식 발표…지상군 화력강화 美, 濠와 공기흡입식 극초음속 미사일 공동개발 루마니아, 한국의 K9자주포와 K2흑표전차 구매 희망 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 삼성전자, 테슬라에 공급될 반도체 놓고 TSMC와 격돌…TSMC에 물... 日 엔화, 달러당 145엔 돌파…이전 개입 수준에 근접 [초점] 중국, 'AI굴기' 가시화…인재교육·재정지원 강화 일본맥도널드, 7일부터 전매장 종이 빨대·목재 식기 순차 도입 금감원, 금융사고 예방 내부통제 개선···명령휴가제 의무화 Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 美, 한국산 무기 구매해 우크라 지원 추진…신궁 등 4.3조원 규모 2 LG에너지솔루션, 美IRA 바람 타고 북미시장 장악 속도낸다 3 美 50조원대 OMFV사업에 한화디펜스vs독일 라인메탈 경쟁 4 삼성SDI, 헝가리 괴드공장서 화재…인명피해 없어 5 전세계 평균 밑돌던 美 전기차시장 '변곡점' 맞았다 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 산업 실시간 뉴스 8분전 삼성전자, 2027년 1.4나노 양산 선포…TSMC 확실히 제친다 만트럭버스코리아, 신임 CSM 총괄 부사장 선임 롯데케미칼, EPP 활용한 '층간 소음 완충재' 개발 4시간전 쿠쿠홈시스, 말레이서 8주년콘서트 성료…대표 건강브랜드로 입지강화 현대모비스, 차량용 5G 통신모듈 자체 개발 美 50조원대 OMFV사업에 한화디펜스vs독일 라인메탈 경쟁 19시간전 전세계 평균 밑돌던 美 전기차시장 '변곡점' 맞았다 삼성SDI, 헝가리 괴드공장서 화재…인명피해 없어 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
-  </si>
-  <si>
-    <t>[인사]제주도관광협회 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 [인사]제주도관광협회 글로벌모터즈 온타임즈 PDF지면보기 English 中文 종합 facebook twitter youtube 검색 메뉴 정치 경제 사회 전국 인물동정·인사·부고 기타 공유 0 [인사]제주도관광협회 김용현 기자 입력2015-04-02 16:00 [글로벌이코노믹 김용현 기자] ▲수도권홍보사무소장 양성우 ▲호남권홍보사무소장 김창효 ▲회원지원실장(직대) 홍선영 ▲해외마케팅실장(직대) 양승필 ▲국내마케팅실장(직대) 김의남 ▲정책기획실장(직대) 오문향 ▲사업운영실장(직대) 김보형 ▲회원관리팀장 문명호 ▲해외마케팅팀장 김종훈 ▲마이스T/F팀장 김종범김용현 기자 dotorin@ 우크라이나 뉴스 기본정보 무역 투자 비즈니스 여행 우크라이나 늘어나는 사기, 사례와 대응방법 알아보기 2021.07.30 전시회 참가업체와의 인터뷰를 통해 본 우크라이나 농산업 시장 2021.06.30 키예프 메디컬 포럼 참관기 2021.06.16 우크라이나 거주 시 알아두면 유용한 정보 및 사이트 2021.05.21 우크라이나 스마트팜 웨비나 &amp; 화상상담 현장 스케치 2021.05.07 헤드라인 뉴스 [뉴욕증시] 국채 수익률 하락 나스닥 2.27% 급등 [뉴욕 e종목] 테슬라 투매 나왔나…주가 8.6% 폭락 "美 중간 선거 후 한국산 전기차 차별 해소 가능성" 글로벌비즈 러시아, 이탈리아에 러시아산 천연가스 3일부터 공급중단 日 미쓰비시중공업, 보다 안전한 원자로 개발 착수 일본제철, 아르셀로미탈과 손잡고 인도 철강 생산 확대에 74억달러 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 폴란드, SNT모티브 K4 고속유탄기관총 구매 공식 발표…지상군 화력강화 美, 濠와 공기흡입식 극초음속 미사일 공동개발 루마니아, 한국의 K9자주포와 K2흑표전차 구매 희망 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 삼성전자, 테슬라에 공급될 반도체 놓고 TSMC와 격돌…TSMC에 물... 日 엔화, 달러당 145엔 돌파…이전 개입 수준에 근접 [초점] 중국, 'AI굴기' 가시화…인재교육·재정지원 강화 일본맥도널드, 7일부터 전매장 종이 빨대·목재 식기 순차 도입 금감원, 금융사고 예방 내부통제 개선···명령휴가제 의무화 Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 '생방송투데이' 자족식당 밤오리누룽지백숙, 맛있GO 6500원 장어탕 2 2TV 저녁 생생정보 장사의신 12000원 왕만두전골 3 제2회 광명영화제 대상에 '친구야, 청산가자'…남자연기상 김민동·여자연기상 장무식 선정 4 개천절 전국 흐리고 비…미세먼지 ‘좋음’ 5 달러 급했나?..해외주식 '원화' 환전시 인센티브 검토 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 종합 실시간 뉴스 23분전 尹 "北, 4000km미사일 발사...국제사회 결연히 대응할 것" 광명시, 개청 41주년 시민화합체육대회 4000여명 참여 안산시, 안산시민의 날 기념식·체육행사 성황리에 마무리 11시간전 조희창(목사) 조희걸(목사) 조희연 (서울시 교육감) 모친상 달러 급했나?..해외주식 '원화' 환전시 인센티브 검토 국제전기통신연합 이사국에 대한민국 9회 연속 선출 14시간전 '생방송투데이' 자족식당 밤오리누룽지백숙, 맛있GO 6500원 장어탕 경찰위, 헌재에 '경찰지휘규칙' 권한쟁의심판 청구 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
+    <t>[인사] 제주도관광협회 본문 바로가기 NAVER 뉴스 연예 스포츠 날씨 프리미엄 검색 언론사별 정치 경제 사회 생활/문화 IT/과학 세계 랭킹 신문보기 오피니언 TV 팩트체크 구독 서울경제 언론사 구독되었습니다. 메인 뉴스판에서 주요뉴스를 볼 수 있습니다. 보러가기 서울경제 언론사 구독 해지되었습니다. [인사] 제주도관광협회 입력2015.04.02. 오후 3:38 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 △ 수도권홍보사무소장 양성우 △ 호남권홍보사무소장 김창효 △ 회원지원실장(직대) 홍선영 △ 해외마케팅실장(직대) 양승필 △ 국내마케팅실장(직대) 김의남 △ 정책기획실장(직대) 오문향 △ 사업운영실장(직대) 김보형 △ 회원관리팀장 문명호 △ 해외마케팅팀장 김종훈 △ 마이스T/F팀장 김종범/디지털미디어부 [ⓒ 한국미디어네트워크, 무단 전재 및 재배포 금지] ?? Copyright ⓒ 서울경제. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 확 달라진 남편, 아내와 잠자리서… 깜짝 '입시비리 파문' 영훈국제중 급기야… 한국 특전사 때문에 美 특수부대가… 충격행각 들통난 예원 해명에 이태임 결국 [단독] 한국 3년후엔… 최악 사태 벌어지나 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 서울경제 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 서울경제 헤드라인 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 홍준표 대구시장이 국민의힘 차기 당권 주자로 이름을 올리고 있는 유승민 전 의원을 향해 "배신 경력 있는 사람은 가라"고 날카롭게 대립각을 세웠다. 홍 시장은 11일 자신의 페이스북에 올린 글을 통해 "악역도 마다하 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)이 음주 측정을 거부하다가 현행범으로 체포됐다. 이와 함께 경찰은 신혜성이 타고 있던 차량에 대해 도난 신고가 들어온 사실을 확인하고 절도 혐의도 함께 수사 중이다. 11일 아이폰14 들고 롤러코스터 탔다가…911 수십통 전화 '황당' 애플이 아이폰14 시리즈에서 새롭게 선보인 ‘충돌 감지 기능’의 오작동 사례가 발견됐다. 놀이기구에 탑승한 것을 교통사고로 인식해 911에 전화를 건 것이다. 10일(현지시간) 월스트리트저널(WSJ) 등 외신에 따르 "정말 91세 맞나"…현역 최고령 美모델, 과감한 누드 화보 91세 현역 최고령 모델 카르멘 델로레피체가 잡지 ‘뉴유(New You)’의 표지를 장식했다. 델로레피체는 과감한 누드 화보도 선보였다. 미국 건강 및 뷰티 잡지 ‘뉴유’는 홈페이지와 유튜브를 통해 최근 델로레피체의 이전 뉴스들 보기 3 다음 뉴스들 보기 서울경제가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 서울경제 헤드라인 더보기 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 41분전 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' 17시간전 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 1시간전 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 3시간전 아이폰14 들고 롤러코스터 탔다가…911 수십통 전화 '황당' 42분전 "정말 91세 맞나"…현역 최고령 美모델, 과감한 누드 화보 36분전 서울경제 랭킹 뉴스 오전 10시~11시까지 집계한 결과입니다. 오전 8시~11시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' 17시간전 2 14살 제자와 성관계 '발칵'…태권도 사범 "진심으로 사랑" 20시간전 3 쇼핑몰 대박 강민경, 65억 건물 사서 이사…"팀원들 다 울어" 7시간전 4 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 3시간전 5 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 1시간전 1 尹대통령, 北향해 “핵 통해 얻을 수 있는 건 아무것도 없다” 2시간전 2 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' 17시간전 3 '신화' 신혜성, 도난차량 탄 채 음주측정 거부하다 체포 3시간전 4 14살 제자와 성관계 '발칵'…태권도 사범 "진심으로 사랑" 20시간전 5 김용민 “尹, 5년 못 채우게”…대통령실 “헌정 질서 흔들겠다는 것” 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 재생하기 재생시간04:32 일본 여행 '모든 제한' 해제됐다…항공권 가격 천정부지 친절한 경제 시간입니다. 한지연 기자 나와 있습니다. 오늘(11일)부터 일본 자유 여행이 이제 가능해진다고요? 네, 2년 7개월 만이죠. 코로나 확산으로 2020년 3월 9일부터 중단됐던 일본 무비자 여행이 오늘부터 구미 원룸서 40대女 숨진 채 발견..함께 있던 술 취한 남성 "내가 때린듯" 경북 구미의 한 원룸에서 40대 여성이 사망한 채 발견됐다. 11일 경찰 등에 따르면 지난 10일 오후 2시쯤 경북 구미시 원평동의 한 원룸에서 40대 남성 A씨가 함께 있던 여성 B씨가 숨을 쉬지 않는다고 119에 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 신호대기 중 자동차와 오토바이 간 가벼운 접촉사고가 발생했는데, “괜찮다”며 자리를 뜬 오토바이 운전자가 뒤늦게 200만 원의 합의금을 요구해왔다는 사연이 전해졌다. 지난 4일 유튜브 채널 ‘한문철TV’에는 ‘한방병 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' 전 세계적으로 코로나19가 잠잠해지자 아프리카에서 또 다른 감염병 경고등이 들어왔다. 치명률이 50%에 육박하는 에볼라 바이러스다. 한 달 사이 벌써 30여명이 사망했고 2014년 에볼라가 유입된 경험이 있는 미국엔 서울 공원서 50대 남성, 총기로 극단선택 시도… “권총 사용 추정” 11일 오전 서울 서초구 잠원동에서 총기 사건이 발생해 경찰이 수사에 착수했다. 서울 서초경찰서는 이날 오전 5시33분쯤 서초구 잠원동 인근의 공원에서 50대 남성 A씨가 권총을 사용해 극단적 선택을 시도한 것으로 [집값 버블붕괴의 시작] ①세종·인천 와르르…서울 청약불패 옛말 부동산 시장이 얼어붙으면서 집값은 떨어지고 거래절벽 현상이 극심해지고 있다. 로또 분양은 옛말이 됐고 서울 청약 열기도 이미 가신 지 오래다. 집값 폭등 원인인 '저금리, 과잉 유동성'의 시대가 끝나고 '금리 인상, [단독] 물은 그대론데... 장관 한마디에 KTX 세면대 '음용불가' 문구 삭제 원희룡 국토교통부 장관의 한마디에 2004년 개통 이래 유지됐던 KTX 화장실 세면대에 적혀 있던 '이 물은 마실 수 없습니다'라는 문구가 사라진 것으로 확인됐다. 다만 KTX 열차 내 세면대 수질은 그대로라서 이용 "밥값 6만원인데 예약금 5만원…취소하면 절반만 돌려준대요" #직장인 차모씨(26)씨는 최근 SNS(사회관계망서비스를 통해 예약금 4만원을 지불하고 향수 공방 체험을 신청했다. 하지만 함께 공방 체험을 한 친구가 코로나19(COVID-19)에 확진되자 예약일 3일 전에 일정 "밥 먹고 바로 샤워? No!" 식사 후 금지행동 5 건강을 위해 올바른 식습관을 갖는 건 아주 중요하다. 무엇을, 언제, 얼마나 먹을지 생각해야 하고 식사를 할 때에도 마음을 쓰며 먹는 것이 도움이 된다. 그런데 우리는 평소 무의식적으로 소화에 도움이 되지 않는 행동 ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 양발 운전, 어떻게 생각하십니까? 자동변속 자동차 운전에 양발을 쓰는 것에 대한 찬반 논쟁이 인터넷 커뮤니티를 중심으로 벌어지고 있다. 반대하는 쪽은 “운전면허를 뺏어야 한다”는 등 격앙된 반응을 보이고 있지만, 양 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 기사내용 요약 애플워치7, 해외서 과열·폭발 우려 제기돼…기기서 연기 '풀풀' 국내서도 애플워치 착용자 우려 계속…국표원 조사까지 받아 갤워치도 손목 화상 주장 나와…소송 지원 집단이 제보받기도 [서울=뉴시스]윤현성 오늘부터 접종 시작 '코로나 2가 백신', 알고 맞자 오늘(11일)부터 코로나19 2가 백신을 활용한 동절기 추가접종이 시작된다. 추가접종에 사용되는 2가 백신은 기존 코로나19 바이러스(우한주)와 전 세계 코로나 재유행을 주도했던 오미크론 변이 BA.1을 표적으로 한 서초구 잠원동서 총기 사고 “극단적 선택 추측…현재 수술 중” 서울 서초구에서 총기 사건이 발생해 경찰이 수사에 착수했다. 서울 서초경찰서는 11일 오전 5시 33분경 서초구 잠원동에서 50대 남성 A 씨가 권총으로 극단적 선택을 하려 했다고 보고 수사 중이다. 경찰 관계자는 "8억 넣었는데 반토막"…신불자 위기 카뱅 직원 '비명' ‘노란 메기가 피라미로 전락했나.’ 카카오뱅크·카카오페이가 혁신을 잃어버렸다는 비판에 직면했다. 두 회사 모두 3분기 호실적이 예상되지만 주가가 곤두박질치고 있는 것도 이 때문이라는 분석이다. 우리사주에 청약한 직원 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 치매, ○○ 무뎌지거나 코골이 심해지면 의심 치매 걱정된다면…가족과 가깝게, 친구는 많이 음주 후 전날 일 기억 안난다면 ‘경고등’ 흡연·비만·사회고립 등 위험인자 피해야 당신의 정신건강, 안녕하십니까 아침에 유난히 일어나기 힘들고, 작은 일에도 쉽게 화가 난 안철수 "유승민·나경원 전당대회 출마해야", 홍준표 "배신 경력자는 가라" 국민의힘 안철수 의원이 차기 전당대회와 관련해 "결론이 뻔한 전당대회가 아니라 팽팽한 긴장이 흐르는 흥행할 수 있는 전당대회가 되어야 한다"면서 "유승민, 나경원 두 분 모두 출마하시기를 희망한다"고 밝혔습니다. 당 [속보] “러시아 서부 벨고로드에서도 큰 폭발음” 우크라이나 수도 키이우가 크림대교 폭발 이틀만인 10일(현지시간) 공습을 당한 가운데 러시아 서부 벨고로드에서도 큰 폭발음이 들렸다고 로이터통신이 목격자를 인용해 보도했다. 로이터는 “우크라이나 국경에서 가까운 벨고 ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 지난 5월 7일 여수의 한 아파트 주차장에서 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보 후 무참히 살해됐다. 여수 의처증 살인사건은 ‘어린 피해자의 자녀들이 상처 입을까’ 경찰이 보도 자제를 요청하 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 때아닌 文 전 대통령 고발… 태양광 비리도 조준? 최근 문재인 전 대통령이 감사원의 서면조사에 불응하면서 북한군에 피살된 해양수산부 공무원 고(故) 이대준씨의 유가족이 문 전 대통령에 대한 고발을 예고했다. 특히 이번 고발은 단순한 감사원법 위반 차원이지만 향후 검 도시 전체가 ‘노키즈존’…놀이터가 7만개인데 “놀 곳이 없어요”[투명장벽의 도시②] “이것 봐, 내가 만들었다!” 지난달 23일 경기 성남시의 한 도서관에서 만난 9세 예은이는 한껏 들떠 있었다. 나무 막대로 직접 만든 장난감을 자랑하며 실내를 누비는 발걸음이 가벼웠다. 예은이의 작품은 도서관 내에 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 “사람도 힘든데, 가상 가수가 되겠어?” 회당 10억원, 제작비 총 150억원이 투입된 ‘가상 가수’가 별다른 호응을 얻지 못하고 있다. 시청률 0%대로, 사실상 실패했다는 평가다. 그럼에도 가상세계 프로그램 제작은 택시 떠나는 이유 있네...“택시 연매출 3천만원...배달사업자 3분의 1” 택시 영업익도 배달업의 44%…택시 영업비용 56% 연료비 구자근 의원, 소상공인 운수업 실태분석…“택시 피해 심각” 택시 기사의 연간 매출이 3000만 원 수준으로 퀵·배달대행 서비스에 종사하는 소상공인과 비교해 재생하기 재생시간02:37 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 당뇨병 환자의 상당수는 과체중이나 비만인 경우가 많은 데요. 그런데 애초 당뇨약으로 개발됐지만, 체중 감량 효과가 커 비만 치료제로 크게 각광받는 약이 미국에서 잇달아 나오고 있습니다. 비만약으로 대박을 터뜨리게 된 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% 재생하기 재생시간01:39 2900세대 전기료 잘못 깎아준 한전…환수 방법 없어 '발동동' 이달부터 전기요금이 크게 올랐는데, 또 인상된다는 얘기가 나옵니다. 적자 때문에 어쩔 수 없다는 게 한전의 설명인데요. 그런데 이런 한전이 전기요금 할인 혜택을 잘못 적용해서 결과적으로 손해를 본 것으로 드러났습니다 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 영화로 탄생하는 지탄역 이야기 옥이네 유료 '외부인재 영입' 포바이포, 플랫폼 비즈니스 날개 달았다 thebellstock ‘무서운 루키’ 김주형, 두 달 만에 또 미국PGA투어 정상…우즈보다 빨리 투어 2승 달성…슈라이너스 칠드런스 오픈 , ‘72홀 노 보기’로 완벽 우승…한국 선수 4명 ‘톱10’ 골프&amp;룰스 가이 유료 챔피온 x 삼성역 코엑스 놀거리 에슬레틱 최강브랜드 인정 패션&amp;리빙매거진 워럽 유료 파이썬 답게 데이터 저장하고 읽기 으뜸이네:투자정보 분석 220930_투자시나리오 에어라인 미국 반도체 규제에 맞불... 중국, 희토류 수출 통제 주장 머니서퍼 유료 여자친구가 생기지 않을 것이라고 증명한 수학자의 결말 미스터동 유료 [골프심리] 우리아이 골프 시켜도 괜찮을까? 스포츠심리학자의 인생사례집ing 유료 [인사이트 나우] 새벽 4시 미국은 지금? "다시 오르는 기름값, 바빠진 바이든, 한국-터키의 수상한 거래" 유목민의 시그널리포트 이번 주 주식시장엔 무슨 일이?! 너겟 유료 최고 평가 미국주식 랭킹 버핏2배랩 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 서울경제 예 아니오</t>
+  </si>
+  <si>
+    <t>참좋은여행, 제주도 관광지 입장권 증정 이벤트 진행 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 참좋은여행, 제주도 관광지 입장권 증정 이벤트 진행 글로벌모터즈 온타임즈 PDF지면보기 English 中文 산업 facebook twitter youtube 검색 메뉴 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 공유 0 참좋은여행, 제주도 관광지 입장권 증정 이벤트 진행 강준호 기자 입력2015-04-14 16:09 [글로벌이코노믹 강준호 기자] 14일 참좋은여행은 5~6월 출발고객 대상 제주도 관광지 입장권 2종 증정 이벤트를 진행한다고 밝혔다. 5월 7일부터 6월 30일까지 제주도 에어카텔 자유여행 상품을 이용해 출발하는 고객에게 제주도 유명 관광지 입장권 2종 세트 6가지 중 1가지를 제공하며, 예약 시에 고객이 고를 수 있다. 단 2대 가족이 함께 출발할 경우에 지급한다. 증정품은 우도랜드 우도도항선 왕복권과 제주 민속촌, 메이즈랜드, 미니랜드 입장권 조합 3가지와 조은승마 기본코스 이용권과 유리 박물관, 소인국 테마파크, 세계 자동차 박물관 입장권 조합 3가지 총 6가지다. 우도도항선 왕복권을 포함한 티켓 묶음은 1만3000원 상당, 조은승마 이용권을 포함한 묶음은 2만1000원 상당이다. 참좋은여행 관계자는 “제주도가 가장 사랑 받는 시기 5~6월을 맞아 가족과 함께 즐거운 추억을 만들 수 있게 체험 입장권을 제공하는 이벤트를 기획하게 됐다”며 “앞으로도 고객에 대한 감사의 의미로 다양한 사은 행사를 진행할 계획”이라고 말했다.강준호 기자 invincible@ 호주 뉴스 기본정보 무역 투자 비즈니스 여행 원자재 및 식량 교역파트너로 호주의 역할 2021.11.19 호주 감귤협회가 전망한 한국 감귤의 수출 기회 2021.11.06 호주로 화장품 수출, 인증이 필요할까? 2021.10.13 호주 NSW주에 임박한 위드 코로나, 무엇이 달라질까? 2021.10.08 호주 최초의 수소 혼합가스 공급사 AGIG 수소 파크 방문기 2021.10.01 헤드라인 뉴스 사우디 원유 감산에 미‧EU "잊지 않겠다" 분노 시진핑, 덩샤오핑의 실용·탈이념 시대 종식 현대차, 인도서 4년만에 최고 순이익 달성 글로벌비즈 국제민간항공기구, '2050년까지 탄소중립' 합의...중국·인도, 기한 연장 요구 티센크루프, 녹색수소 환원철 시스템 구축에 2조7000억원 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 인니 정부, 프랑스 라팔제치고 KF-21 개발에 매달리나 美육군의 업그레이드된 M1A2 SEPv4 에이브람스 탱크 프로토타입 '유출' 낙탄사고 일으킨 현무 미사일…K-국방 신뢰성 해칠까 우려 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 [초점] ﻿美, ﻿中 반도체 수출 통제 글로벌 반도체 기업 피해 얼... 테슬라, 9월 중 사상최대 출하에도 수요 우려 커져 JP모건 CEO, 미국·세계경제 6~9개월 후 경기침체 경고 시카고 연은 총재 “정책금리 내년 4.5%이상 상승” 삼성전자, 인도서 갤럭시버즈2프로 펌웨어업데이트 이후 소음문제... Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 LIG vs 한화, 1兆 규모 해군 함정용 전자전 장비 쟁탈전 2 30년 전 국내 첫 LNG선 ‘현대유토피아’호 건조 개시 3 '취업제한' 풀린지 2개월…경영전면 나서는 이재용 4 中, 한·중 반도체 ETF 인가…미국과 반도체 놓고 줄다리기 5 1999년 첫 해외 수주 성공…더 넓은 무대로 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 산업 실시간 뉴스 17분전 아우디, 美에 전기차 생산 거점 구상 중 LS, KT서브마린에 252억 투자…신재생에너지 사업 확대 김승연 한화그룹 회장 "어제의 한화 경계해 늘 새로워지자" 1시간전 LG전자, 휘센 상업용 시스템에어컨 '멀티브이 아이' 출시 "MZ 빼고 잠 줄었다" 삼성, 갤워치로 글로벌 수면 분석 포스코홀딩스, LG엔솔과 이차전지 사업 MOU 체결 4시간전 인도네시아, 전기차 판매 촉진 위해 2023년 구매 보조금 계획 세인트루이스, 도심 차량 절도 만연으로 현대·기아차 고소 준비 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
+  </si>
+  <si>
+    <t>[인사]제주도관광협회 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 [인사]제주도관광협회 글로벌모터즈 온타임즈 PDF지면보기 English 中文 종합 facebook twitter youtube 검색 메뉴 정치 경제 사회 전국 인물동정·인사·부고 기타 공유 0 [인사]제주도관광협회 김용현 기자 입력2015-04-02 16:00 [글로벌이코노믹 김용현 기자] ▲수도권홍보사무소장 양성우 ▲호남권홍보사무소장 김창효 ▲회원지원실장(직대) 홍선영 ▲해외마케팅실장(직대) 양승필 ▲국내마케팅실장(직대) 김의남 ▲정책기획실장(직대) 오문향 ▲사업운영실장(직대) 김보형 ▲회원관리팀장 문명호 ▲해외마케팅팀장 김종훈 ▲마이스T/F팀장 김종범김용현 기자 dotorin@ 스페인 뉴스 기본정보 무역 투자 비즈니스 여행 남부유럽 최대 규모의 스타트업 박람회인 사우스 서밋을 방문하다 2021.10.19 “스페인은 유럽 속 작은 한국”, 스페인 e스포츠구단 대표와 만나다 2021.10.13 스페인, 전기요금 급등으로 경기 회복 지연 우려 2021.10.13 스페인 국제 판촉물 전시회(PROMOGIFT) 참관기 2021.09.28 스페인, 코로나19 가운데 MWC 성공리에 개최 2021.07.19 헤드라인 뉴스 사우디 원유 감산에 미‧EU "잊지 않겠다" 분노 시진핑, 덩샤오핑의 실용·탈이념 시대 종식 현대차, 인도서 4년만에 최고 순이익 달성 글로벌비즈 국제민간항공기구, '2050년까지 탄소중립' 합의...중국·인도, 기한 연장 요구 티센크루프, 녹색수소 환원철 시스템 구축에 2조7000억원 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 인니 정부, 프랑스 라팔제치고 KF-21 개발에 매달리나 美육군의 업그레이드된 M1A2 SEPv4 에이브람스 탱크 프로토타입 '유출' 낙탄사고 일으킨 현무 미사일…K-국방 신뢰성 해칠까 우려 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 [초점] ﻿美, ﻿中 반도체 수출 통제 글로벌 반도체 기업 피해 얼... 테슬라, 9월 중 사상최대 출하에도 수요 우려 커져 JP모건 CEO, 미국·세계경제 6~9개월 후 경기침체 경고 시카고 연은 총재 “정책금리 내년 4.5%이상 상승” 삼성전자, 인도서 갤럭시버즈2프로 펌웨어업데이트 이후 소음문제... Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 한글날 비 주의보 기상청 전국 일기예보 2 '생방송투데이' 먹킷리스트 김치삼겹 갈레트, 맛있GO 6500원 14첩반상 3 2TV 저녁 생생정보 고수의부엌 갈비곱창구이 4 포항에 이는 영화 바람, 문신구 감독의 '2퍼센트' 5 이준석, 탈당은 없다…재기 전략은 '고심' 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 종합 실시간 뉴스 30분전 개막 첫날 6만 명 방문… 장성 황룡강 가을꽃축제 '대박 예감' 함평군, ‘콩 융복합단지 조성사업’ 공모 선정 나주시, 영산강에서 ‘한국 철인 3종경기’ 첫 개최 1시간전 외교부 조정기획관 황소진 등 안산시, 제3회 안산 김홍도 축제 4년 만에 시민 찾아간다 이숙자 서울시의원, 내방역 8번 출입구 에스컬레이터 2대 신설 추진 2시간전 새마을지도자 안산시협의회, 사랑의 헌혈 생명나눔 캠페인 안산시, 국가안전대진단 추진상황 중간보고회 개최 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
   </si>
 </sst>
 </file>
@@ -425,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -477,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -488,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,19 +597,13 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -518,7 +611,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -526,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -537,10 +633,212 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
